--- a/DB/Basicinfo/Cities-2023-08-18.xlsx
+++ b/DB/Basicinfo/Cities-2023-08-18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48806E0D-0AB5-4096-A834-917C410979E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="401">
   <si>
     <t>id</t>
   </si>
@@ -484,13 +485,751 @@
   </si>
   <si>
     <t>name_ar</t>
+  </si>
+  <si>
+    <t>القاهرة</t>
+  </si>
+  <si>
+    <t>الجيزة</t>
+  </si>
+  <si>
+    <t>6 أكتوبر</t>
+  </si>
+  <si>
+    <t>الشيخ زايد</t>
+  </si>
+  <si>
+    <t>الحوامدية</t>
+  </si>
+  <si>
+    <t>البدرشين</t>
+  </si>
+  <si>
+    <t>أطفيح</t>
+  </si>
+  <si>
+    <t>العياط</t>
+  </si>
+  <si>
+    <t>الباويطي</t>
+  </si>
+  <si>
+    <t>منشأة القناطر</t>
+  </si>
+  <si>
+    <t>أوسيم</t>
+  </si>
+  <si>
+    <t>كرداسة</t>
+  </si>
+  <si>
+    <t>أبو النمرس</t>
+  </si>
+  <si>
+    <t>بنها</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>شبرا الخيمة</t>
+  </si>
+  <si>
+    <t>القناطر الخيرية</t>
+  </si>
+  <si>
+    <t>الخانكة</t>
+  </si>
+  <si>
+    <t>كفر شكر</t>
+  </si>
+  <si>
+    <t>طوخ</t>
+  </si>
+  <si>
+    <t>قها</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>الخصوص</t>
+  </si>
+  <si>
+    <t>شبين القناطر</t>
+  </si>
+  <si>
+    <t>الإسكندرية</t>
+  </si>
+  <si>
+    <t>برج العرب</t>
+  </si>
+  <si>
+    <t>برج العرب الجديدة</t>
+  </si>
+  <si>
+    <t>إدكو</t>
+  </si>
+  <si>
+    <t>أبو المطامير</t>
+  </si>
+  <si>
+    <t>إيتاي البارود</t>
+  </si>
+  <si>
+    <t>كوم حمادة</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>دمنهور</t>
+  </si>
+  <si>
+    <t>كفر الدوار</t>
+  </si>
+  <si>
+    <t>رشيد</t>
+  </si>
+  <si>
+    <t>أبو حمص</t>
+  </si>
+  <si>
+    <t>الدلنجات</t>
+  </si>
+  <si>
+    <t>المحمودية</t>
+  </si>
+  <si>
+    <t>الرحمانية</t>
+  </si>
+  <si>
+    <t>حوش عيسى</t>
+  </si>
+  <si>
+    <t>شبراخيت</t>
+  </si>
+  <si>
+    <t>وادي النطرون</t>
+  </si>
+  <si>
+    <t>النوبارية الجديدة</t>
+  </si>
+  <si>
+    <t>الحمام</t>
+  </si>
+  <si>
+    <t>العلمين</t>
+  </si>
+  <si>
+    <t>الضبعة</t>
+  </si>
+  <si>
+    <t>النجيلة</t>
+  </si>
+  <si>
+    <t>سيدي براني</t>
+  </si>
+  <si>
+    <t>السلوم</t>
+  </si>
+  <si>
+    <t>سيوة</t>
+  </si>
+  <si>
+    <t>مرسى مطروح</t>
+  </si>
+  <si>
+    <t>دمياط</t>
+  </si>
+  <si>
+    <t>دمياط الجديدة</t>
+  </si>
+  <si>
+    <t>رأس البر</t>
+  </si>
+  <si>
+    <t>فارسكور</t>
+  </si>
+  <si>
+    <t>كفر سعد</t>
+  </si>
+  <si>
+    <t>الزرقا</t>
+  </si>
+  <si>
+    <t>السرو</t>
+  </si>
+  <si>
+    <t>الروضة</t>
+  </si>
+  <si>
+    <t>كفر البطيخ</t>
+  </si>
+  <si>
+    <t>عزبة البرج</t>
+  </si>
+  <si>
+    <t>ميت أبو غالب</t>
+  </si>
+  <si>
+    <t>المنصورة</t>
+  </si>
+  <si>
+    <t>طلخا</t>
+  </si>
+  <si>
+    <t>ميت غمر</t>
+  </si>
+  <si>
+    <t>دكرنس</t>
+  </si>
+  <si>
+    <t>أجا</t>
+  </si>
+  <si>
+    <t>منية النصر</t>
+  </si>
+  <si>
+    <t>السنبلاوين</t>
+  </si>
+  <si>
+    <t>الكردي</t>
+  </si>
+  <si>
+    <t>بني عبيد</t>
+  </si>
+  <si>
+    <t>المنزلة</t>
+  </si>
+  <si>
+    <t>تمي الأمديد</t>
+  </si>
+  <si>
+    <t>الجمالية</t>
+  </si>
+  <si>
+    <t>شربين</t>
+  </si>
+  <si>
+    <t>المطرية</t>
+  </si>
+  <si>
+    <t>بلقاس</t>
+  </si>
+  <si>
+    <t>ميت سلسيل</t>
+  </si>
+  <si>
+    <t>جمصة</t>
+  </si>
+  <si>
+    <t>محلة دمنة</t>
+  </si>
+  <si>
+    <t>نبروه</t>
+  </si>
+  <si>
+    <t>طنطا</t>
+  </si>
+  <si>
+    <t>المحلة الكبرى</t>
+  </si>
+  <si>
+    <t>كفر الزيات</t>
+  </si>
+  <si>
+    <t>زفتى</t>
+  </si>
+  <si>
+    <t>قطور</t>
+  </si>
+  <si>
+    <t>بسيون</t>
+  </si>
+  <si>
+    <t>سمنود</t>
+  </si>
+  <si>
+    <t>كفر الشيخ</t>
+  </si>
+  <si>
+    <t>دسوق</t>
+  </si>
+  <si>
+    <t>فوه</t>
+  </si>
+  <si>
+    <t>مطوبس</t>
+  </si>
+  <si>
+    <t>بلطيم</t>
+  </si>
+  <si>
+    <t>مصيف بلطيم</t>
+  </si>
+  <si>
+    <t>الحامول</t>
+  </si>
+  <si>
+    <t>بيلا</t>
+  </si>
+  <si>
+    <t>الرياض</t>
+  </si>
+  <si>
+    <t>سيدي سالم</t>
+  </si>
+  <si>
+    <t>قلين</t>
+  </si>
+  <si>
+    <t>سيدي غازي</t>
+  </si>
+  <si>
+    <t>برج البرلس</t>
+  </si>
+  <si>
+    <t>مسير</t>
+  </si>
+  <si>
+    <t>مدينة السادات</t>
+  </si>
+  <si>
+    <t>الباجور</t>
+  </si>
+  <si>
+    <t>بركة السبع</t>
+  </si>
+  <si>
+    <t>الشهداء</t>
+  </si>
+  <si>
+    <t>شبين الكوم</t>
+  </si>
+  <si>
+    <t>منوف</t>
+  </si>
+  <si>
+    <t>سرس الليان</t>
+  </si>
+  <si>
+    <t>أشمون</t>
+  </si>
+  <si>
+    <t>قويسنا</t>
+  </si>
+  <si>
+    <t>تلا</t>
+  </si>
+  <si>
+    <t>الإسماعيلية</t>
+  </si>
+  <si>
+    <t>فايد</t>
+  </si>
+  <si>
+    <t>القنطرة شرق</t>
+  </si>
+  <si>
+    <t>القنطرة غرب</t>
+  </si>
+  <si>
+    <t>التل الكبير</t>
+  </si>
+  <si>
+    <t>أبو صوير المحطة</t>
+  </si>
+  <si>
+    <t>القصاصين الجديدة</t>
+  </si>
+  <si>
+    <t>بورسعيد</t>
+  </si>
+  <si>
+    <t>بورفؤاد</t>
+  </si>
+  <si>
+    <t>السويس</t>
+  </si>
+  <si>
+    <t>الزقازيق</t>
+  </si>
+  <si>
+    <t>العاشر من رمضان</t>
+  </si>
+  <si>
+    <t>منيا القمح</t>
+  </si>
+  <si>
+    <t>بلبيس</t>
+  </si>
+  <si>
+    <t>مشتول السوق</t>
+  </si>
+  <si>
+    <t>القنايات</t>
+  </si>
+  <si>
+    <t>أبو حماد</t>
+  </si>
+  <si>
+    <t>القرين</t>
+  </si>
+  <si>
+    <t>ههيا</t>
+  </si>
+  <si>
+    <t>أبو كبير</t>
+  </si>
+  <si>
+    <t>فاقوس</t>
+  </si>
+  <si>
+    <t>الصالحية الجديدة</t>
+  </si>
+  <si>
+    <t>الإبراهيمية</t>
+  </si>
+  <si>
+    <t>ديرب نجم</t>
+  </si>
+  <si>
+    <t>كفر صقر</t>
+  </si>
+  <si>
+    <t>أولاد صقر</t>
+  </si>
+  <si>
+    <t>الحسينية</t>
+  </si>
+  <si>
+    <t>صان الحجر القبلية</t>
+  </si>
+  <si>
+    <t>منشأة أبو عمر</t>
+  </si>
+  <si>
+    <t>العريش</t>
+  </si>
+  <si>
+    <t>بئر العبد</t>
+  </si>
+  <si>
+    <t>الشيخ زويد</t>
+  </si>
+  <si>
+    <t>رفح</t>
+  </si>
+  <si>
+    <t>الحسنة</t>
+  </si>
+  <si>
+    <t>نخل</t>
+  </si>
+  <si>
+    <t>الطور</t>
+  </si>
+  <si>
+    <t>شرم الشيخ</t>
+  </si>
+  <si>
+    <t>دهب</t>
+  </si>
+  <si>
+    <t>نويبع</t>
+  </si>
+  <si>
+    <t>طابا</t>
+  </si>
+  <si>
+    <t>سانت كاترين</t>
+  </si>
+  <si>
+    <t>أبو رديس</t>
+  </si>
+  <si>
+    <t>أبو زنيمة</t>
+  </si>
+  <si>
+    <t>رأس سدر</t>
+  </si>
+  <si>
+    <t>بني سويف</t>
+  </si>
+  <si>
+    <t>بني سويف الجديدة</t>
+  </si>
+  <si>
+    <t>الواسطى</t>
+  </si>
+  <si>
+    <t>ناصر</t>
+  </si>
+  <si>
+    <t>إهناسيا</t>
+  </si>
+  <si>
+    <t>ببا</t>
+  </si>
+  <si>
+    <t>سمسطا</t>
+  </si>
+  <si>
+    <t>الفشن</t>
+  </si>
+  <si>
+    <t>الفيوم</t>
+  </si>
+  <si>
+    <t>الفيوم الجديدة</t>
+  </si>
+  <si>
+    <t>طامية</t>
+  </si>
+  <si>
+    <t>سنورس</t>
+  </si>
+  <si>
+    <t>إطسا</t>
+  </si>
+  <si>
+    <t>إبشواي</t>
+  </si>
+  <si>
+    <t>يوسف الصديق</t>
+  </si>
+  <si>
+    <t>المنيا</t>
+  </si>
+  <si>
+    <t>المنيا الجديدة</t>
+  </si>
+  <si>
+    <t>العدوة</t>
+  </si>
+  <si>
+    <t>مغاغة</t>
+  </si>
+  <si>
+    <t>بني مزار</t>
+  </si>
+  <si>
+    <t>مطاي</t>
+  </si>
+  <si>
+    <t>سمالوط</t>
+  </si>
+  <si>
+    <t>المدينة الفكرية</t>
+  </si>
+  <si>
+    <t>ملوي</t>
+  </si>
+  <si>
+    <t>دير مواس</t>
+  </si>
+  <si>
+    <t>أسيوط</t>
+  </si>
+  <si>
+    <t>أسيوط الجديدة</t>
+  </si>
+  <si>
+    <t>ديروط</t>
+  </si>
+  <si>
+    <t>منفلوط</t>
+  </si>
+  <si>
+    <t>القوصية</t>
+  </si>
+  <si>
+    <t>أبنوب</t>
+  </si>
+  <si>
+    <t>أبو تيج</t>
+  </si>
+  <si>
+    <t>الغنايم</t>
+  </si>
+  <si>
+    <t>ساحل سليم</t>
+  </si>
+  <si>
+    <t>البداري</t>
+  </si>
+  <si>
+    <t>صدفا</t>
+  </si>
+  <si>
+    <t>الخارجة</t>
+  </si>
+  <si>
+    <t>باريس</t>
+  </si>
+  <si>
+    <t>موط</t>
+  </si>
+  <si>
+    <t>الفرافرة</t>
+  </si>
+  <si>
+    <t>بلاط</t>
+  </si>
+  <si>
+    <t>أسوان</t>
+  </si>
+  <si>
+    <t>أسوان الجديدة</t>
+  </si>
+  <si>
+    <t>دراو</t>
+  </si>
+  <si>
+    <t>كوم أمبو</t>
+  </si>
+  <si>
+    <t>نصر النوبة</t>
+  </si>
+  <si>
+    <t>كلابشة</t>
+  </si>
+  <si>
+    <t>إدفو</t>
+  </si>
+  <si>
+    <t>الرديسية</t>
+  </si>
+  <si>
+    <t>البصيلية</t>
+  </si>
+  <si>
+    <t>السباعية</t>
+  </si>
+  <si>
+    <t>أبو سمبل السياحية</t>
+  </si>
+  <si>
+    <t>الأقصر</t>
+  </si>
+  <si>
+    <t>الأقصر الجديدة</t>
+  </si>
+  <si>
+    <t>طيبة الجديدة</t>
+  </si>
+  <si>
+    <t>الزينية</t>
+  </si>
+  <si>
+    <t>البياضية</t>
+  </si>
+  <si>
+    <t>القرنة</t>
+  </si>
+  <si>
+    <t>أرمنت</t>
+  </si>
+  <si>
+    <t>الطود</t>
+  </si>
+  <si>
+    <t>إسنا</t>
+  </si>
+  <si>
+    <t>الغردقة</t>
+  </si>
+  <si>
+    <t>رأس غارب</t>
+  </si>
+  <si>
+    <t>سفاجا</t>
+  </si>
+  <si>
+    <t>القصير</t>
+  </si>
+  <si>
+    <t>مرسى علم</t>
+  </si>
+  <si>
+    <t>الشلاتين</t>
+  </si>
+  <si>
+    <t>سوهاج</t>
+  </si>
+  <si>
+    <t>سوهاج الجديدة</t>
+  </si>
+  <si>
+    <t>أخميم</t>
+  </si>
+  <si>
+    <t>أخميم الجديدة</t>
+  </si>
+  <si>
+    <t>البلينا</t>
+  </si>
+  <si>
+    <t>المراغة</t>
+  </si>
+  <si>
+    <t>المنشأة</t>
+  </si>
+  <si>
+    <t>دار السلام</t>
+  </si>
+  <si>
+    <t>جرجا</t>
+  </si>
+  <si>
+    <t>جهينة الغربية</t>
+  </si>
+  <si>
+    <t>ساقلتة</t>
+  </si>
+  <si>
+    <t>طما</t>
+  </si>
+  <si>
+    <t>طهطا</t>
+  </si>
+  <si>
+    <t>قنا</t>
+  </si>
+  <si>
+    <t>قنا الجديدة</t>
+  </si>
+  <si>
+    <t>أبو تشت</t>
+  </si>
+  <si>
+    <t>نجع حمادي</t>
+  </si>
+  <si>
+    <t>دشنا</t>
+  </si>
+  <si>
+    <t>الوقف</t>
+  </si>
+  <si>
+    <t>قفط</t>
+  </si>
+  <si>
+    <t>نقادة</t>
+  </si>
+  <si>
+    <t>قوص</t>
+  </si>
+  <si>
+    <t>فرشوط</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,9 +1241,16 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -536,13 +1282,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,12 +1592,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,165 +3573,3532 @@
         <v>122</v>
       </c>
     </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>175</v>
+      </c>
+      <c r="C144" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>176</v>
+      </c>
+      <c r="C145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>176</v>
+      </c>
+      <c r="C146" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>176</v>
+      </c>
+      <c r="C147" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>176</v>
+      </c>
+      <c r="C148" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>176</v>
+      </c>
+      <c r="C149" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>176</v>
+      </c>
+      <c r="C150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>176</v>
+      </c>
+      <c r="C151" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>176</v>
+      </c>
+      <c r="C152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>176</v>
+      </c>
+      <c r="C153" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>176</v>
+      </c>
+      <c r="C154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>176</v>
+      </c>
+      <c r="C155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>176</v>
+      </c>
+      <c r="C156" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>177</v>
+      </c>
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>177</v>
+      </c>
+      <c r="C158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>177</v>
+      </c>
+      <c r="C159" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>177</v>
+      </c>
+      <c r="C160" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>177</v>
+      </c>
+      <c r="C161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>177</v>
+      </c>
+      <c r="C162" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>177</v>
+      </c>
+      <c r="C163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>177</v>
+      </c>
+      <c r="C164" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>177</v>
+      </c>
+      <c r="C165" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>177</v>
+      </c>
+      <c r="C166" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>177</v>
+      </c>
+      <c r="C167" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>178</v>
+      </c>
+      <c r="C168" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>178</v>
+      </c>
+      <c r="C169" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>178</v>
+      </c>
+      <c r="C170" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>179</v>
+      </c>
+      <c r="C171" t="s">
+        <v>187</v>
+      </c>
+      <c r="F171" s="4">
+        <v>244336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>188</v>
+      </c>
+      <c r="F172" s="4">
+        <v>121054</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>179</v>
+      </c>
+      <c r="C173" t="s">
+        <v>189</v>
+      </c>
+      <c r="F173" s="4">
+        <v>72491</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>179</v>
+      </c>
+      <c r="C174" t="s">
+        <v>182</v>
+      </c>
+      <c r="F174" s="4">
+        <v>105875</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>183</v>
+      </c>
+      <c r="F175" s="4">
+        <v>44511</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>179</v>
+      </c>
+      <c r="C176" t="s">
+        <v>190</v>
+      </c>
+      <c r="F176" s="4">
+        <v>36801</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>191</v>
+      </c>
+      <c r="F177" s="4">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>192</v>
+      </c>
+      <c r="F178" s="4">
+        <v>27706</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>193</v>
+      </c>
+      <c r="F179" s="4">
+        <v>32093</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="s">
+        <v>184</v>
+      </c>
+      <c r="F180" s="4">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="F181" s="4">
+        <v>72839</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>179</v>
+      </c>
+      <c r="C182" t="s">
+        <v>195</v>
+      </c>
+      <c r="F182" s="4">
+        <v>30829</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>179</v>
+      </c>
+      <c r="C183" t="s">
+        <v>185</v>
+      </c>
+      <c r="F183" s="4">
+        <v>41227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>179</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+      <c r="F184" s="4">
+        <v>16895</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>179</v>
+      </c>
+      <c r="C185" t="s">
+        <v>196</v>
+      </c>
+      <c r="F185" s="4">
+        <v>20082</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>179</v>
+      </c>
+      <c r="C186" t="s">
+        <v>197</v>
+      </c>
+      <c r="F186" s="4">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>180</v>
+      </c>
+      <c r="C187" t="s">
+        <v>205</v>
+      </c>
+      <c r="F187" s="4">
+        <v>68339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>180</v>
+      </c>
+      <c r="C188" t="s">
+        <v>198</v>
+      </c>
+      <c r="F188" s="4">
+        <v>17745</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>180</v>
+      </c>
+      <c r="C189" t="s">
+        <v>199</v>
+      </c>
+      <c r="F189" s="4">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>180</v>
+      </c>
+      <c r="C190" t="s">
+        <v>200</v>
+      </c>
+      <c r="F190" s="4">
+        <v>26451</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>180</v>
+      </c>
+      <c r="C191" t="s">
+        <v>201</v>
+      </c>
+      <c r="F191" s="4">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>180</v>
+      </c>
+      <c r="C192" t="s">
+        <v>202</v>
+      </c>
+      <c r="F192" s="4">
+        <v>7519</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>180</v>
+      </c>
+      <c r="C193" t="s">
+        <v>203</v>
+      </c>
+      <c r="F193" s="4">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>180</v>
+      </c>
+      <c r="C194" t="s">
+        <v>204</v>
+      </c>
+      <c r="F194" s="4">
+        <v>13202</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>181</v>
+      </c>
+      <c r="C195" t="s">
+        <v>217</v>
+      </c>
+      <c r="F195" s="4">
+        <v>428292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>181</v>
+      </c>
+      <c r="C196" t="s">
+        <v>218</v>
+      </c>
+      <c r="F196" s="4">
+        <v>78785</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>181</v>
+      </c>
+      <c r="C197" t="s">
+        <v>219</v>
+      </c>
+      <c r="F197" s="4">
+        <v>121039</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>181</v>
+      </c>
+      <c r="C198" t="s">
+        <v>220</v>
+      </c>
+      <c r="F198" s="4">
+        <v>69473</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>181</v>
+      </c>
+      <c r="C199" t="s">
+        <v>221</v>
+      </c>
+      <c r="F199" s="4">
+        <v>18548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>181</v>
+      </c>
+      <c r="C200" t="s">
+        <v>222</v>
+      </c>
+      <c r="F200" s="4">
+        <v>58571</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>181</v>
+      </c>
+      <c r="C201" t="s">
+        <v>223</v>
+      </c>
+      <c r="F201" s="4">
+        <v>87660</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>181</v>
+      </c>
+      <c r="C202" t="s">
+        <v>224</v>
+      </c>
+      <c r="F202" s="4">
+        <v>30473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>181</v>
+      </c>
+      <c r="C203" t="s">
+        <v>225</v>
+      </c>
+      <c r="F203" s="4">
+        <v>31659</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>181</v>
+      </c>
+      <c r="C204" t="s">
+        <v>226</v>
+      </c>
+      <c r="F204" s="4">
+        <v>72555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>181</v>
+      </c>
+      <c r="C205" t="s">
+        <v>227</v>
+      </c>
+      <c r="F205" s="4">
+        <v>13915</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>181</v>
+      </c>
+      <c r="C206" t="s">
+        <v>228</v>
+      </c>
+      <c r="F206" s="4">
+        <v>71650</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>181</v>
+      </c>
+      <c r="C207" t="s">
+        <v>229</v>
+      </c>
+      <c r="F207" s="4">
+        <v>55631</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>181</v>
+      </c>
+      <c r="C208" t="s">
+        <v>230</v>
+      </c>
+      <c r="F208" s="4">
+        <v>105728</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>181</v>
+      </c>
+      <c r="C209" t="s">
+        <v>231</v>
+      </c>
+      <c r="F209" s="4">
+        <v>103550</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>181</v>
+      </c>
+      <c r="C210" t="s">
+        <v>232</v>
+      </c>
+      <c r="F210" s="4">
+        <v>35626</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>181</v>
+      </c>
+      <c r="C211" t="s">
+        <v>233</v>
+      </c>
+      <c r="F211">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>181</v>
+      </c>
+      <c r="C212" t="s">
+        <v>234</v>
+      </c>
+      <c r="F212" s="4">
+        <v>21518</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>181</v>
+      </c>
+      <c r="C213" t="s">
+        <v>235</v>
+      </c>
+      <c r="F213" s="4">
+        <v>37187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>182</v>
+      </c>
+      <c r="C214" t="s">
+        <v>206</v>
+      </c>
+      <c r="F214" s="4">
+        <v>105092</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>182</v>
+      </c>
+      <c r="C215" t="s">
+        <v>207</v>
+      </c>
+      <c r="F215" s="4">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>182</v>
+      </c>
+      <c r="C216" t="s">
+        <v>208</v>
+      </c>
+      <c r="F216" s="4">
+        <v>8635</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>182</v>
+      </c>
+      <c r="C217" t="s">
+        <v>209</v>
+      </c>
+      <c r="F217" s="4">
+        <v>36850</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>182</v>
+      </c>
+      <c r="C218" t="s">
+        <v>210</v>
+      </c>
+      <c r="F218" s="4">
+        <v>21431</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>182</v>
+      </c>
+      <c r="C219" t="s">
+        <v>211</v>
+      </c>
+      <c r="F219" s="4">
+        <v>17604</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>182</v>
+      </c>
+      <c r="C220" t="s">
+        <v>212</v>
+      </c>
+      <c r="F220" s="4">
+        <v>23193</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>182</v>
+      </c>
+      <c r="C221" t="s">
+        <v>213</v>
+      </c>
+      <c r="F221" s="4">
+        <v>22755</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>182</v>
+      </c>
+      <c r="C222" t="s">
+        <v>214</v>
+      </c>
+      <c r="F222" s="4">
+        <v>29163</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>182</v>
+      </c>
+      <c r="C223" t="s">
+        <v>215</v>
+      </c>
+      <c r="F223" s="4">
+        <v>36934</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>182</v>
+      </c>
+      <c r="C224" t="s">
+        <v>216</v>
+      </c>
+      <c r="F224" s="4">
+        <v>16193</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>183</v>
+      </c>
+      <c r="C225" t="s">
+        <v>236</v>
+      </c>
+      <c r="F225" s="4">
+        <v>429503</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>183</v>
+      </c>
+      <c r="C226" t="s">
+        <v>237</v>
+      </c>
+      <c r="F226" s="4">
+        <v>466369</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>183</v>
+      </c>
+      <c r="C227" t="s">
+        <v>238</v>
+      </c>
+      <c r="F227" s="4">
+        <v>79701</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>183</v>
+      </c>
+      <c r="C228" t="s">
+        <v>239</v>
+      </c>
+      <c r="F228" s="4">
+        <v>100908</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>183</v>
+      </c>
+      <c r="C229" t="s">
+        <v>121</v>
+      </c>
+      <c r="F229" s="4">
+        <v>36305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>183</v>
+      </c>
+      <c r="C230" t="s">
+        <v>240</v>
+      </c>
+      <c r="F230" s="4">
+        <v>25184</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>183</v>
+      </c>
+      <c r="C231" t="s">
+        <v>241</v>
+      </c>
+      <c r="F231" s="4">
+        <v>59744</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>183</v>
+      </c>
+      <c r="C232" t="s">
+        <v>242</v>
+      </c>
+      <c r="F232" s="4">
+        <v>59720</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>184</v>
+      </c>
+      <c r="C233" t="s">
+        <v>243</v>
+      </c>
+      <c r="F233" s="4">
+        <v>146226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>184</v>
+      </c>
+      <c r="C234" t="s">
+        <v>244</v>
+      </c>
+      <c r="F234" s="4">
+        <v>106367</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>184</v>
+      </c>
+      <c r="C235" t="s">
+        <v>245</v>
+      </c>
+      <c r="F235" s="4">
+        <v>64290</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>184</v>
+      </c>
+      <c r="C236" t="s">
+        <v>246</v>
+      </c>
+      <c r="F236" s="4">
+        <v>31193</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>184</v>
+      </c>
+      <c r="C237" t="s">
+        <v>247</v>
+      </c>
+      <c r="F237" s="4">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>184</v>
+      </c>
+      <c r="C238" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>184</v>
+      </c>
+      <c r="C239" t="s">
+        <v>249</v>
+      </c>
+      <c r="F239" s="4">
+        <v>49369</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>184</v>
+      </c>
+      <c r="C240" t="s">
+        <v>250</v>
+      </c>
+      <c r="F240" s="4">
+        <v>67211</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>184</v>
+      </c>
+      <c r="C241" t="s">
+        <v>251</v>
+      </c>
+      <c r="F241" s="4">
+        <v>17933</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>184</v>
+      </c>
+      <c r="C242" t="s">
+        <v>252</v>
+      </c>
+      <c r="F242" s="4">
+        <v>52055</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>184</v>
+      </c>
+      <c r="C243" t="s">
+        <v>253</v>
+      </c>
+      <c r="F243" s="4">
+        <v>36710</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>184</v>
+      </c>
+      <c r="C244" t="s">
+        <v>254</v>
+      </c>
+      <c r="F244" s="4">
+        <v>23320</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>184</v>
+      </c>
+      <c r="C245" t="s">
+        <v>255</v>
+      </c>
+      <c r="F245" s="4">
+        <v>41775</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>184</v>
+      </c>
+      <c r="C246" t="s">
+        <v>256</v>
+      </c>
+      <c r="F246" s="4">
+        <v>29613</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>185</v>
+      </c>
+      <c r="C247" t="s">
+        <v>261</v>
+      </c>
+      <c r="F247" s="4">
+        <v>188309</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>185</v>
+      </c>
+      <c r="C248" t="s">
+        <v>257</v>
+      </c>
+      <c r="F248" s="4">
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>185</v>
+      </c>
+      <c r="C249" t="s">
+        <v>262</v>
+      </c>
+      <c r="F249" s="4">
+        <v>94020</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>185</v>
+      </c>
+      <c r="C250" t="s">
+        <v>263</v>
+      </c>
+      <c r="F250" s="4">
+        <v>52992</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>185</v>
+      </c>
+      <c r="C251" t="s">
+        <v>264</v>
+      </c>
+      <c r="F251" s="4">
+        <v>86466</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>185</v>
+      </c>
+      <c r="C252" t="s">
+        <v>258</v>
+      </c>
+      <c r="F252" s="4">
+        <v>38797</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>185</v>
+      </c>
+      <c r="C253" t="s">
+        <v>265</v>
+      </c>
+      <c r="F253" s="4">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>185</v>
+      </c>
+      <c r="C254" t="s">
+        <v>259</v>
+      </c>
+      <c r="F254" s="4">
+        <v>36072</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>185</v>
+      </c>
+      <c r="C255" t="s">
+        <v>266</v>
+      </c>
+      <c r="F255" s="4">
+        <v>53996</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>185</v>
+      </c>
+      <c r="C256" t="s">
+        <v>260</v>
+      </c>
+      <c r="F256" s="4">
+        <v>50953</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>186</v>
+      </c>
+      <c r="C257" t="s">
+        <v>267</v>
+      </c>
+      <c r="F257" s="4">
+        <v>303527</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>186</v>
+      </c>
+      <c r="C258" t="s">
+        <v>268</v>
+      </c>
+      <c r="F258" s="4">
+        <v>19709</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>186</v>
+      </c>
+      <c r="C259" t="s">
+        <v>269</v>
+      </c>
+      <c r="F259" s="4">
+        <v>15834</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>186</v>
+      </c>
+      <c r="C260" t="s">
+        <v>270</v>
+      </c>
+      <c r="F260" s="4">
+        <v>20314</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>186</v>
+      </c>
+      <c r="C261" t="s">
+        <v>271</v>
+      </c>
+      <c r="F261" s="4">
+        <v>40555</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>186</v>
+      </c>
+      <c r="C262" t="s">
+        <v>272</v>
+      </c>
+      <c r="F262" s="4">
+        <v>25545</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>186</v>
+      </c>
+      <c r="C263" t="s">
+        <v>273</v>
+      </c>
+      <c r="F263" s="4">
+        <v>15433</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>187</v>
+      </c>
+      <c r="C264" t="s">
+        <v>274</v>
+      </c>
+      <c r="F264" s="4">
+        <v>475076</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>187</v>
+      </c>
+      <c r="C265" t="s">
+        <v>275</v>
+      </c>
+      <c r="F265" s="4">
+        <v>70712</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>188</v>
+      </c>
+      <c r="C266" t="s">
+        <v>276</v>
+      </c>
+      <c r="F266" s="5">
+        <v>498476</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>189</v>
+      </c>
+      <c r="C267" t="s">
+        <v>277</v>
+      </c>
+      <c r="F267" s="4">
+        <v>318393</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>189</v>
+      </c>
+      <c r="C268" t="s">
+        <v>278</v>
+      </c>
+      <c r="F268" s="4">
+        <v>29601</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>189</v>
+      </c>
+      <c r="C269" t="s">
+        <v>279</v>
+      </c>
+      <c r="F269" s="4">
+        <v>67450</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>189</v>
+      </c>
+      <c r="C270" t="s">
+        <v>280</v>
+      </c>
+      <c r="F270" s="4">
+        <v>141285</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>189</v>
+      </c>
+      <c r="C271" t="s">
+        <v>281</v>
+      </c>
+      <c r="F271" s="4">
+        <v>47153</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>189</v>
+      </c>
+      <c r="C272" t="s">
+        <v>282</v>
+      </c>
+      <c r="F272" s="4">
+        <v>59522</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>189</v>
+      </c>
+      <c r="C273" t="s">
+        <v>283</v>
+      </c>
+      <c r="F273" s="4">
+        <v>36592</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>189</v>
+      </c>
+      <c r="C274" t="s">
+        <v>284</v>
+      </c>
+      <c r="F274" s="4">
+        <v>64559</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>189</v>
+      </c>
+      <c r="C275" t="s">
+        <v>285</v>
+      </c>
+      <c r="F275" s="4">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>189</v>
+      </c>
+      <c r="C276" t="s">
+        <v>286</v>
+      </c>
+      <c r="F276" s="4">
+        <v>104100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>189</v>
+      </c>
+      <c r="C277" t="s">
+        <v>287</v>
+      </c>
+      <c r="F277" s="4">
+        <v>73081</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>189</v>
+      </c>
+      <c r="C278" t="s">
+        <v>288</v>
+      </c>
+      <c r="F278" s="4">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>189</v>
+      </c>
+      <c r="C279" t="s">
+        <v>289</v>
+      </c>
+      <c r="F279" s="4">
+        <v>35022</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>189</v>
+      </c>
+      <c r="C280" t="s">
+        <v>290</v>
+      </c>
+      <c r="F280" s="4">
+        <v>52611</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>189</v>
+      </c>
+      <c r="C281" t="s">
+        <v>291</v>
+      </c>
+      <c r="F281" s="4">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>189</v>
+      </c>
+      <c r="C282" t="s">
+        <v>292</v>
+      </c>
+      <c r="F282" s="4">
+        <v>19515</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>189</v>
+      </c>
+      <c r="C283" t="s">
+        <v>293</v>
+      </c>
+      <c r="F283" s="4">
+        <v>29565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>189</v>
+      </c>
+      <c r="C284" t="s">
+        <v>294</v>
+      </c>
+      <c r="F284" s="4">
+        <v>43157</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>189</v>
+      </c>
+      <c r="C285" t="s">
+        <v>295</v>
+      </c>
+      <c r="F285" s="4">
+        <v>31650</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>190</v>
+      </c>
+      <c r="C286" t="s">
+        <v>296</v>
+      </c>
+      <c r="F286" s="4">
+        <v>125309</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>190</v>
+      </c>
+      <c r="C287" t="s">
+        <v>298</v>
+      </c>
+      <c r="F287" s="4">
+        <v>15765</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>190</v>
+      </c>
+      <c r="C288" t="s">
+        <v>299</v>
+      </c>
+      <c r="F288" s="4">
+        <v>31419</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>190</v>
+      </c>
+      <c r="C289" t="s">
+        <v>297</v>
+      </c>
+      <c r="F289" s="4">
+        <v>10405</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>190</v>
+      </c>
+      <c r="C290" t="s">
+        <v>300</v>
+      </c>
+      <c r="F290" s="4">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>190</v>
+      </c>
+      <c r="C291" t="s">
+        <v>301</v>
+      </c>
+      <c r="F291" s="4">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>191</v>
+      </c>
+      <c r="C292" t="s">
+        <v>302</v>
+      </c>
+      <c r="F292" s="4">
+        <v>12733</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>191</v>
+      </c>
+      <c r="C293" t="s">
+        <v>303</v>
+      </c>
+      <c r="F293" s="4">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>191</v>
+      </c>
+      <c r="C294" t="s">
+        <v>304</v>
+      </c>
+      <c r="F294" s="4">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>191</v>
+      </c>
+      <c r="C295" t="s">
+        <v>305</v>
+      </c>
+      <c r="F295" s="4">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>191</v>
+      </c>
+      <c r="C296" t="s">
+        <v>306</v>
+      </c>
+      <c r="F296">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>191</v>
+      </c>
+      <c r="C297" t="s">
+        <v>307</v>
+      </c>
+      <c r="F297">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>191</v>
+      </c>
+      <c r="C298" t="s">
+        <v>308</v>
+      </c>
+      <c r="F298" s="4">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>191</v>
+      </c>
+      <c r="C299" t="s">
+        <v>309</v>
+      </c>
+      <c r="F299" s="4">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>191</v>
+      </c>
+      <c r="C300" t="s">
+        <v>310</v>
+      </c>
+      <c r="F300" s="4">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>192</v>
+      </c>
+      <c r="C301" t="s">
+        <v>311</v>
+      </c>
+      <c r="F301" s="4">
+        <v>205076</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>192</v>
+      </c>
+      <c r="C302" t="s">
+        <v>312</v>
+      </c>
+      <c r="F302">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>192</v>
+      </c>
+      <c r="C303" t="s">
+        <v>313</v>
+      </c>
+      <c r="F303" s="4">
+        <v>38739</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>192</v>
+      </c>
+      <c r="C304" t="s">
+        <v>314</v>
+      </c>
+      <c r="F304" s="4">
+        <v>88379</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>192</v>
+      </c>
+      <c r="C305" t="s">
+        <v>315</v>
+      </c>
+      <c r="F305" s="4">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>192</v>
+      </c>
+      <c r="C306" t="s">
+        <v>316</v>
+      </c>
+      <c r="F306" s="4">
+        <v>62090</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>192</v>
+      </c>
+      <c r="C307" t="s">
+        <v>317</v>
+      </c>
+      <c r="F307" s="4">
+        <v>38569</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>192</v>
+      </c>
+      <c r="C308" t="s">
+        <v>318</v>
+      </c>
+      <c r="F308" s="4">
+        <v>66376</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>193</v>
+      </c>
+      <c r="C309" t="s">
+        <v>319</v>
+      </c>
+      <c r="F309" s="4">
+        <v>311576</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>193</v>
+      </c>
+      <c r="C310" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>193</v>
+      </c>
+      <c r="C311" t="s">
+        <v>321</v>
+      </c>
+      <c r="F311" s="4">
+        <v>49669</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>193</v>
+      </c>
+      <c r="C312" t="s">
+        <v>322</v>
+      </c>
+      <c r="F312" s="4">
+        <v>87730</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>193</v>
+      </c>
+      <c r="C313" t="s">
+        <v>323</v>
+      </c>
+      <c r="F313" s="4">
+        <v>47306</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>193</v>
+      </c>
+      <c r="C314" t="s">
+        <v>324</v>
+      </c>
+      <c r="F314" s="4">
+        <v>54299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>193</v>
+      </c>
+      <c r="C315" t="s">
+        <v>325</v>
+      </c>
+      <c r="F315">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>194</v>
+      </c>
+      <c r="C316" t="s">
+        <v>326</v>
+      </c>
+      <c r="F316" s="4">
+        <v>235733</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>194</v>
+      </c>
+      <c r="C317" t="s">
+        <v>327</v>
+      </c>
+      <c r="F317">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>194</v>
+      </c>
+      <c r="C318" t="s">
+        <v>328</v>
+      </c>
+      <c r="F318" s="4">
+        <v>17609</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>194</v>
+      </c>
+      <c r="C319" t="s">
+        <v>329</v>
+      </c>
+      <c r="F319" s="4">
+        <v>77360</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>194</v>
+      </c>
+      <c r="C320" t="s">
+        <v>330</v>
+      </c>
+      <c r="F320" s="4">
+        <v>67699</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>194</v>
+      </c>
+      <c r="C321" t="s">
+        <v>331</v>
+      </c>
+      <c r="F321" s="4">
+        <v>47429</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>194</v>
+      </c>
+      <c r="C322" t="s">
+        <v>332</v>
+      </c>
+      <c r="F322" s="4">
+        <v>96029</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>194</v>
+      </c>
+      <c r="C323" t="s">
+        <v>333</v>
+      </c>
+      <c r="F323" s="4">
+        <v>63264</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>194</v>
+      </c>
+      <c r="C324" t="s">
+        <v>334</v>
+      </c>
+      <c r="F324" s="4">
+        <v>143884</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>194</v>
+      </c>
+      <c r="C325" t="s">
+        <v>335</v>
+      </c>
+      <c r="F325" s="4">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>195</v>
+      </c>
+      <c r="C326" t="s">
+        <v>336</v>
+      </c>
+      <c r="F326" s="4">
+        <v>406401</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>195</v>
+      </c>
+      <c r="C327" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>195</v>
+      </c>
+      <c r="C328" t="s">
+        <v>338</v>
+      </c>
+      <c r="F328" s="4">
+        <v>71567</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>195</v>
+      </c>
+      <c r="C329" t="s">
+        <v>339</v>
+      </c>
+      <c r="F329" s="4">
+        <v>84048</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>195</v>
+      </c>
+      <c r="C330" t="s">
+        <v>340</v>
+      </c>
+      <c r="F330" s="4">
+        <v>71453</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>195</v>
+      </c>
+      <c r="C331" t="s">
+        <v>341</v>
+      </c>
+      <c r="F331" s="4">
+        <v>72599</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>195</v>
+      </c>
+      <c r="C332" t="s">
+        <v>342</v>
+      </c>
+      <c r="F332" s="4">
+        <v>75288</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>195</v>
+      </c>
+      <c r="C333" t="s">
+        <v>343</v>
+      </c>
+      <c r="F333" s="4">
+        <v>50581</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>195</v>
+      </c>
+      <c r="C334" t="s">
+        <v>344</v>
+      </c>
+      <c r="F334" s="4">
+        <v>30295</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>195</v>
+      </c>
+      <c r="C335" t="s">
+        <v>345</v>
+      </c>
+      <c r="F335" s="4">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>195</v>
+      </c>
+      <c r="C336" t="s">
+        <v>346</v>
+      </c>
+      <c r="F336" s="4">
+        <v>22678</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>196</v>
+      </c>
+      <c r="C337" t="s">
+        <v>347</v>
+      </c>
+      <c r="F337" s="4">
+        <v>60717</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>196</v>
+      </c>
+      <c r="C338" t="s">
+        <v>348</v>
+      </c>
+      <c r="F338" s="4">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>196</v>
+      </c>
+      <c r="C339" t="s">
+        <v>349</v>
+      </c>
+      <c r="F339" s="4">
+        <v>19616</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>196</v>
+      </c>
+      <c r="C340" t="s">
+        <v>350</v>
+      </c>
+      <c r="F340" s="4">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>196</v>
+      </c>
+      <c r="C341" t="s">
+        <v>351</v>
+      </c>
+      <c r="F341" s="4">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>197</v>
+      </c>
+      <c r="C342" t="s">
+        <v>352</v>
+      </c>
+      <c r="F342" s="4">
+        <v>252246</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>197</v>
+      </c>
+      <c r="C343" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>197</v>
+      </c>
+      <c r="C344" t="s">
+        <v>354</v>
+      </c>
+      <c r="F344" s="4">
+        <v>36529</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>197</v>
+      </c>
+      <c r="C345" t="s">
+        <v>355</v>
+      </c>
+      <c r="F345" s="4">
+        <v>74268</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>197</v>
+      </c>
+      <c r="C346" t="s">
+        <v>356</v>
+      </c>
+      <c r="F346" s="4">
+        <v>6257</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>197</v>
+      </c>
+      <c r="C347" t="s">
+        <v>357</v>
+      </c>
+      <c r="F347">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>197</v>
+      </c>
+      <c r="C348" t="s">
+        <v>358</v>
+      </c>
+      <c r="F348" s="4">
+        <v>65768</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>197</v>
+      </c>
+      <c r="C349" t="s">
+        <v>359</v>
+      </c>
+      <c r="F349" s="4">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>197</v>
+      </c>
+      <c r="C350" t="s">
+        <v>360</v>
+      </c>
+      <c r="F350" s="4">
+        <v>20039</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>197</v>
+      </c>
+      <c r="C351" t="s">
+        <v>361</v>
+      </c>
+      <c r="F351" s="4">
+        <v>15507</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>197</v>
+      </c>
+      <c r="C352" t="s">
+        <v>362</v>
+      </c>
+      <c r="F352" s="4">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>198</v>
+      </c>
+      <c r="C353" t="s">
+        <v>363</v>
+      </c>
+      <c r="F353" s="4">
+        <v>159703</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>198</v>
+      </c>
+      <c r="C354" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>198</v>
+      </c>
+      <c r="C355" t="s">
+        <v>365</v>
+      </c>
+      <c r="F355" s="4">
+        <v>51974</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>198</v>
+      </c>
+      <c r="C356" t="s">
+        <v>366</v>
+      </c>
+      <c r="F356" s="4">
+        <v>12943</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>198</v>
+      </c>
+      <c r="C357" t="s">
+        <v>367</v>
+      </c>
+      <c r="F357" s="4">
+        <v>16241</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>198</v>
+      </c>
+      <c r="C358" t="s">
+        <v>368</v>
+      </c>
+      <c r="F358" s="4">
+        <v>24239</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>198</v>
+      </c>
+      <c r="C359" t="s">
+        <v>369</v>
+      </c>
+      <c r="F359" s="4">
+        <v>80469</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>198</v>
+      </c>
+      <c r="C360" t="s">
+        <v>370</v>
+      </c>
+      <c r="F360" s="4">
+        <v>27357</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>198</v>
+      </c>
+      <c r="C361" t="s">
+        <v>371</v>
+      </c>
+      <c r="F361" s="4">
+        <v>67807</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>199</v>
+      </c>
+      <c r="C362" t="s">
+        <v>372</v>
+      </c>
+      <c r="F362" s="4">
+        <v>71920</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>199</v>
+      </c>
+      <c r="C363" t="s">
+        <v>373</v>
+      </c>
+      <c r="F363" s="4">
+        <v>32318</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>199</v>
+      </c>
+      <c r="C364" t="s">
+        <v>374</v>
+      </c>
+      <c r="F364" s="4">
+        <v>28261</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>199</v>
+      </c>
+      <c r="C365" t="s">
+        <v>375</v>
+      </c>
+      <c r="F365" s="4">
+        <v>24344</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>199</v>
+      </c>
+      <c r="C366" t="s">
+        <v>376</v>
+      </c>
+      <c r="F366" s="4">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>199</v>
+      </c>
+      <c r="C367" t="s">
+        <v>377</v>
+      </c>
+      <c r="F367" s="4">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>199</v>
+      </c>
+      <c r="C368" t="s">
+        <v>16</v>
+      </c>
+      <c r="F368" s="4">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>200</v>
+      </c>
+      <c r="C369" t="s">
+        <v>378</v>
+      </c>
+      <c r="F369" s="4">
+        <v>208505</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>200</v>
+      </c>
+      <c r="C370" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>200</v>
+      </c>
+      <c r="C371" t="s">
+        <v>380</v>
+      </c>
+      <c r="F371" s="4">
+        <v>104460</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>200</v>
+      </c>
+      <c r="C372" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>200</v>
+      </c>
+      <c r="C373" t="s">
+        <v>382</v>
+      </c>
+      <c r="F373" s="4">
+        <v>49333</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>200</v>
+      </c>
+      <c r="C374" t="s">
+        <v>383</v>
+      </c>
+      <c r="F374" s="4">
+        <v>38802</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>200</v>
+      </c>
+      <c r="C375" t="s">
+        <v>384</v>
+      </c>
+      <c r="F375" s="4">
+        <v>62692</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>200</v>
+      </c>
+      <c r="C376" t="s">
+        <v>385</v>
+      </c>
+      <c r="F376" s="4">
+        <v>28024</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>200</v>
+      </c>
+      <c r="C377" t="s">
+        <v>386</v>
+      </c>
+      <c r="F377" s="4">
+        <v>109230</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>200</v>
+      </c>
+      <c r="C378" t="s">
+        <v>387</v>
+      </c>
+      <c r="F378" s="4">
+        <v>48453</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>200</v>
+      </c>
+      <c r="C379" t="s">
+        <v>388</v>
+      </c>
+      <c r="F379" s="4">
+        <v>22575</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>200</v>
+      </c>
+      <c r="C380" t="s">
+        <v>389</v>
+      </c>
+      <c r="F380" s="4">
+        <v>71590</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>200</v>
+      </c>
+      <c r="C381" t="s">
+        <v>390</v>
+      </c>
+      <c r="F381" s="4">
+        <v>89540</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>201</v>
+      </c>
+      <c r="C382" t="s">
+        <v>391</v>
+      </c>
+      <c r="F382" s="4">
+        <v>185369</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>201</v>
+      </c>
+      <c r="C383" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>201</v>
+      </c>
+      <c r="C384" t="s">
+        <v>393</v>
+      </c>
+      <c r="F384" s="4">
+        <v>13156</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>201</v>
+      </c>
+      <c r="C385" t="s">
+        <v>394</v>
+      </c>
+      <c r="F385" s="4">
+        <v>40758</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>201</v>
+      </c>
+      <c r="C386" t="s">
+        <v>395</v>
+      </c>
+      <c r="F386" s="4">
+        <v>55690</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>201</v>
+      </c>
+      <c r="C387" t="s">
+        <v>396</v>
+      </c>
+      <c r="F387" s="4">
+        <v>29712</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>201</v>
+      </c>
+      <c r="C388" t="s">
+        <v>397</v>
+      </c>
+      <c r="F388" s="4">
+        <v>22142</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>201</v>
+      </c>
+      <c r="C389" t="s">
+        <v>398</v>
+      </c>
+      <c r="F389" s="4">
+        <v>23286</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>201</v>
+      </c>
+      <c r="C390" t="s">
+        <v>399</v>
+      </c>
+      <c r="F390" s="4">
+        <v>60763</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>201</v>
+      </c>
+      <c r="C391" t="s">
+        <v>400</v>
+      </c>
+      <c r="F391" s="4">
+        <v>54244</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" tooltip="محلية وادي حلفا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D9%88%D8%A7%D8%AF%D9%8A_%D8%AD%D9%84%D9%81%D8%A7"/>
-    <hyperlink ref="E26" r:id="rId2" tooltip="وادي حلفا" display="https://ar.wikipedia.org/wiki/%D9%88%D8%A7%D8%AF%D9%8A_%D8%AD%D9%84%D9%81%D8%A7"/>
-    <hyperlink ref="C27" r:id="rId3" tooltip="محلية دنقلا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%AF%D9%86%D9%82%D9%84%D8%A7"/>
-    <hyperlink ref="E27" r:id="rId4" tooltip="دنقلا" display="https://ar.wikipedia.org/wiki/%D8%AF%D9%86%D9%82%D9%84%D8%A7"/>
-    <hyperlink ref="C28" r:id="rId5" tooltip="مروي" display="https://ar.wikipedia.org/wiki/%D9%85%D8%B1%D9%88%D9%8A"/>
-    <hyperlink ref="E28" r:id="rId6" tooltip="مروي" display="https://ar.wikipedia.org/wiki/%D9%85%D8%B1%D9%88%D9%8A"/>
-    <hyperlink ref="C29" r:id="rId7" tooltip="الدبة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="E29" r:id="rId8" tooltip="الدبة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="C30" r:id="rId9" tooltip="محلية أبو حمد" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A3%D8%A8%D9%88_%D8%AD%D9%85%D8%AF"/>
-    <hyperlink ref="E30" r:id="rId10" tooltip="أبو حمد" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%A8%D9%88_%D8%AD%D9%85%D8%AF"/>
-    <hyperlink ref="C31" r:id="rId11" tooltip="محلية بربر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A8%D8%B1%D8%A8%D8%B1"/>
-    <hyperlink ref="E31" r:id="rId12" tooltip="بربر (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D8%A8%D8%B1_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="C32" r:id="rId13" tooltip="محلية الدامر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AF%D8%A7%D9%85%D8%B1"/>
-    <hyperlink ref="E32" r:id="rId14" tooltip="الدامر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A7%D9%85%D8%B1"/>
-    <hyperlink ref="C33" r:id="rId15" tooltip="محلية عطبرة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9"/>
-    <hyperlink ref="E33" r:id="rId16" tooltip="شندي" display="https://ar.wikipedia.org/wiki/%D8%B4%D9%86%D8%AF%D9%8A"/>
-    <hyperlink ref="C34" r:id="rId17" tooltip="محلية المتمة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%85%D8%AA%D9%85%D8%A9"/>
-    <hyperlink ref="E34" r:id="rId18" tooltip="المتمة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D8%AA%D9%85%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C82" r:id="rId19" tooltip="حلايب" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D8%A7%D9%8A%D8%A8"/>
-    <hyperlink ref="E82" r:id="rId20" tooltip="حلايب" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D8%A7%D9%8A%D8%A8"/>
-    <hyperlink ref="C83" r:id="rId21" tooltip="بورتسودان" display="https://ar.wikipedia.org/wiki/%D8%A8%D9%88%D8%B1%D8%AA%D8%B3%D9%88%D8%AF%D8%A7%D9%86"/>
-    <hyperlink ref="E83" r:id="rId22" tooltip="بورتسودان" display="https://ar.wikipedia.org/wiki/%D8%A8%D9%88%D8%B1%D8%AA%D8%B3%D9%88%D8%AF%D8%A7%D9%86"/>
-    <hyperlink ref="C84" r:id="rId23" tooltip="سنكات" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D9%83%D8%A7%D8%AA"/>
-    <hyperlink ref="E84" r:id="rId24" tooltip="سنكات" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D9%83%D8%A7%D8%AA"/>
-    <hyperlink ref="C85" r:id="rId25" tooltip="طوكر" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%88%D9%83%D8%B1"/>
-    <hyperlink ref="E85" r:id="rId26" tooltip="طوكر" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%88%D9%83%D8%B1"/>
-    <hyperlink ref="C86" r:id="rId27" tooltip="سواكن" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%A7%D9%83%D9%86"/>
-    <hyperlink ref="E86" r:id="rId28" tooltip="سواكن" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%A7%D9%83%D9%86"/>
-    <hyperlink ref="C87" r:id="rId29" tooltip="جبيت" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%8A%D8%AA"/>
-    <hyperlink ref="E87" r:id="rId30" tooltip="جبيت" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%8A%D8%AA"/>
-    <hyperlink ref="C88" r:id="rId31" tooltip="هيا (توضيح)" display="https://ar.wikipedia.org/wiki/%D9%87%D9%8A%D8%A7_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
-    <hyperlink ref="E88" r:id="rId32" tooltip="هيا (توضيح)" display="https://ar.wikipedia.org/wiki/%D9%87%D9%8A%D8%A7_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
-    <hyperlink ref="C89" r:id="rId33" tooltip="درديب" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B1%D8%AF%D9%8A%D8%A8"/>
-    <hyperlink ref="E89" r:id="rId34" tooltip="درديب" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B1%D8%AF%D9%8A%D8%A8"/>
-    <hyperlink ref="C91" r:id="rId35" tooltip="محلية الفاو" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%81%D8%A7%D9%88"/>
-    <hyperlink ref="E91" r:id="rId36" tooltip="الفاو (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D9%88_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C92" r:id="rId37" tooltip="محلية الفشقة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%81%D8%B4%D9%82%D8%A9"/>
-    <hyperlink ref="E92" r:id="rId38" tooltip="الشواك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D9%88%D8%A7%D9%83"/>
-    <hyperlink ref="C93" r:id="rId39" tooltip="محلية القضارف" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%B6%D8%A7%D8%B1%D9%81"/>
-    <hyperlink ref="E93" r:id="rId40" tooltip="القضارف (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B6%D8%A7%D8%B1%D9%81_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="C94" r:id="rId41" tooltip="محلية الرهد" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%B1%D9%87%D8%AF"/>
-    <hyperlink ref="E94" r:id="rId42" tooltip="الحواتة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D9%88%D8%A7%D8%AA%D8%A9"/>
-    <hyperlink ref="E95" r:id="rId43" tooltip="دوكة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%AF%D9%88%D9%83%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="E96" r:id="rId44" tooltip="كساب" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D8%A7%D8%A8"/>
-    <hyperlink ref="C97" r:id="rId45" tooltip="قلع النحل" display="https://ar.wikipedia.org/wiki/%D9%82%D9%84%D8%B9_%D8%A7%D9%84%D9%86%D8%AD%D9%84"/>
-    <hyperlink ref="E97" r:id="rId46" tooltip="قلع النحل" display="https://ar.wikipedia.org/wiki/%D9%82%D9%84%D8%B9_%D8%A7%D9%84%D9%86%D8%AD%D9%84"/>
-    <hyperlink ref="C98" r:id="rId47" tooltip="البطانة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%A8%D8%B7%D8%A7%D9%86%D8%A9"/>
-    <hyperlink ref="C99" r:id="rId48" tooltip="القريشة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%B4%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="E99" r:id="rId49" tooltip="القريشة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%B4%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C101" r:id="rId50" tooltip="نهر عطبرة" display="https://ar.wikipedia.org/wiki/%D9%86%D9%87%D8%B1_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9"/>
-    <hyperlink ref="E101" r:id="rId51" tooltip="حلفا الجديدة" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D9%81%D8%A7_%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9"/>
-    <hyperlink ref="C102" r:id="rId52" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
-    <hyperlink ref="E102" r:id="rId53" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
-    <hyperlink ref="C103" r:id="rId54" tooltip="محلية القاش" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%A7%D8%B4"/>
-    <hyperlink ref="E103" r:id="rId55" tooltip="أروما" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%B1%D9%88%D9%85%D8%A7"/>
-    <hyperlink ref="C104" r:id="rId56" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
-    <hyperlink ref="E104" r:id="rId57" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
-    <hyperlink ref="C2" r:id="rId58" tooltip="محلية الخرطوم" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85"/>
-    <hyperlink ref="E2" r:id="rId59" tooltip="الخرطوم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85"/>
-    <hyperlink ref="C4" r:id="rId60" tooltip="محلية أم درمان الكبرى" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A3%D9%85_%D8%AF%D8%B1%D9%85%D8%A7%D9%86_%D8%A7%D9%84%D9%83%D8%A8%D8%B1%D9%89"/>
-    <hyperlink ref="E4" r:id="rId61" tooltip="أم درمان" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%AF%D8%B1%D9%85%D8%A7%D9%86"/>
-    <hyperlink ref="C6" r:id="rId62" tooltip="الخرطوم بحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85_%D8%A8%D8%AD%D8%B1%D9%8A"/>
-    <hyperlink ref="E6" r:id="rId63" tooltip="الخرطوم بحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85_%D8%A8%D8%AD%D8%B1%D9%8A"/>
-    <hyperlink ref="C7" r:id="rId64" tooltip="شرق النيل" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D9%86%D9%8A%D9%84"/>
-    <hyperlink ref="E7" r:id="rId65" tooltip="شرق النيل" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D9%86%D9%8A%D9%84"/>
-    <hyperlink ref="C8" r:id="rId66" tooltip="جبل الأولياء" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A7%D8%A1"/>
-    <hyperlink ref="E8" r:id="rId67" tooltip="جبل الأولياء" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A7%D8%A1"/>
-    <hyperlink ref="C9" r:id="rId68" tooltip="محلية الكاملين" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%84%D9%8A%D9%86"/>
-    <hyperlink ref="E9" r:id="rId69" tooltip="الكاملين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%84%D9%8A%D9%86"/>
-    <hyperlink ref="C10" r:id="rId70" tooltip="شرق الجزيرة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="E10" r:id="rId71" tooltip="رفاعة" display="https://ar.wikipedia.org/wiki/%D8%B1%D9%81%D8%A7%D8%B9%D8%A9"/>
-    <hyperlink ref="C11" r:id="rId72" tooltip="الحصاحيصا" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%AD%D9%8A%D8%B5%D8%A7"/>
-    <hyperlink ref="E11" r:id="rId73" tooltip="الحصاحيصا" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%AD%D9%8A%D8%B5%D8%A7"/>
-    <hyperlink ref="C12" r:id="rId74" tooltip="المناقل" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%82%D9%84"/>
-    <hyperlink ref="E12" r:id="rId75" tooltip="المناقل" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%82%D9%84"/>
-    <hyperlink ref="C13" r:id="rId76" tooltip="ود مدني" display="https://ar.wikipedia.org/wiki/%D9%88%D8%AF_%D9%85%D8%AF%D9%86%D9%8A"/>
-    <hyperlink ref="E13" r:id="rId77" tooltip="ود مدني" display="https://ar.wikipedia.org/wiki/%D9%88%D8%AF_%D9%85%D8%AF%D9%86%D9%8A"/>
-    <hyperlink ref="E14" r:id="rId78" tooltip="بركات (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D9%83%D8%A7%D8%AA_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C15" r:id="rId79" tooltip="أم القرى (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D9%82%D8%B1%D9%89_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="E15" r:id="rId80" tooltip="أم القرى (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D9%82%D8%B1%D9%89_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C16" r:id="rId81" tooltip="سنار" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%A7%D8%B1"/>
-    <hyperlink ref="E16" r:id="rId82" tooltip="سنار" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%A7%D8%B1"/>
-    <hyperlink ref="C17" r:id="rId83" tooltip="سنجة" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%AC%D8%A9"/>
-    <hyperlink ref="E17" r:id="rId84" tooltip="سنجة" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%AC%D8%A9"/>
-    <hyperlink ref="C18" r:id="rId85" tooltip="محلية الدندر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AF%D9%86%D8%AF%D8%B1"/>
-    <hyperlink ref="E18" r:id="rId86" tooltip="الدندر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%86%D8%AF%D8%B1"/>
-    <hyperlink ref="C20" r:id="rId87" tooltip="سودري" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%AF%D8%B1%D9%8A"/>
-    <hyperlink ref="C21" r:id="rId88" tooltip="جبرة الشيخ (الصفحة غير موجودة)" display="https://ar.wikipedia.org/w/index.php?title=%D8%AC%D8%A8%D8%B1%D8%A9_%D8%A7%D9%84%D8%B4%D9%8A%D8%AE&amp;action=edit&amp;redlink=1"/>
-    <hyperlink ref="C22" r:id="rId89" tooltip="محلية بارا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A8%D8%A7%D8%B1%D8%A7"/>
-    <hyperlink ref="E22" r:id="rId90" tooltip="بارا" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%B1%D8%A7"/>
-    <hyperlink ref="C24" r:id="rId91" tooltip="أم روابة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%B1%D9%88%D8%A7%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="E24" r:id="rId92" tooltip="أم روابة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%B1%D9%88%D8%A7%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="C25" r:id="rId93" tooltip="أم الدم" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D8%AF%D9%85"/>
-    <hyperlink ref="E25" r:id="rId94" tooltip="أم الدم" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D8%AF%D9%85"/>
-    <hyperlink ref="C40" r:id="rId95" tooltip="الدويم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D9%85"/>
-    <hyperlink ref="E40" r:id="rId96" tooltip="الدويم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D9%85"/>
-    <hyperlink ref="C41" r:id="rId97" tooltip="القطينة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%86%D8%A9"/>
-    <hyperlink ref="E41" r:id="rId98" tooltip="القطينة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%86%D8%A9"/>
-    <hyperlink ref="C42" r:id="rId99" tooltip="كوستي" display="https://ar.wikipedia.org/wiki/%D9%83%D9%88%D8%B3%D8%AA%D9%8A"/>
-    <hyperlink ref="E42" r:id="rId100" tooltip="كوستي" display="https://ar.wikipedia.org/wiki/%D9%83%D9%88%D8%B3%D8%AA%D9%8A"/>
-    <hyperlink ref="C43" r:id="rId101" tooltip="جبلين (توضيح)" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84%D9%8A%D9%86_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
-    <hyperlink ref="E43" r:id="rId102" tooltip="جبلين (توضيح)" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84%D9%8A%D9%86_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)"/>
-    <hyperlink ref="C35" r:id="rId103" tooltip="الدمازين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D8%B2%D9%8A%D9%86"/>
-    <hyperlink ref="E35" r:id="rId104" tooltip="الدمازين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D8%B2%D9%8A%D9%86"/>
-    <hyperlink ref="C36" r:id="rId105" tooltip="الروصيرص" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B1%D9%88%D8%B5%D9%8A%D8%B1%D8%B5"/>
-    <hyperlink ref="E36" r:id="rId106" tooltip="الروصيرص" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B1%D9%88%D8%B5%D9%8A%D8%B1%D8%B5"/>
-    <hyperlink ref="C38" r:id="rId107" tooltip="باو" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D9%88"/>
-    <hyperlink ref="E38" r:id="rId108" tooltip="باو" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D9%88"/>
-    <hyperlink ref="C39" r:id="rId109" tooltip="الكرمك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%B1%D9%85%D9%83"/>
-    <hyperlink ref="E39" r:id="rId110" tooltip="الكرمك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%B1%D9%85%D9%83"/>
-    <hyperlink ref="C45" r:id="rId111" tooltip="الدلنج" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%84%D9%86%D8%AC"/>
-    <hyperlink ref="E45" r:id="rId112" tooltip="الدلنج" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%84%D9%86%D8%AC"/>
-    <hyperlink ref="E47" r:id="rId113" tooltip="أبو جبيهة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%A8%D9%88_%D8%AC%D8%A8%D9%8A%D9%87%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="C48" r:id="rId114" tooltip="تلودي" display="https://ar.wikipedia.org/wiki/%D8%AA%D9%84%D9%88%D8%AF%D9%8A"/>
-    <hyperlink ref="E48" r:id="rId115" tooltip="تلودي" display="https://ar.wikipedia.org/wiki/%D8%AA%D9%84%D9%88%D8%AF%D9%8A"/>
-    <hyperlink ref="C49" r:id="rId116" tooltip="كادوقلي" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%AF%D9%88%D9%82%D9%84%D9%8A"/>
-    <hyperlink ref="E49" r:id="rId117" tooltip="كادوقلي" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%AF%D9%88%D9%82%D9%84%D9%8A"/>
-    <hyperlink ref="C55" r:id="rId118" tooltip="برام" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D8%A7%D9%85"/>
-    <hyperlink ref="C59" r:id="rId119" tooltip="العباسية (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B9%D8%A8%D8%A7%D8%B3%D9%8A%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C60" r:id="rId120" tooltip="النهود" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%86%D9%87%D9%88%D8%AF"/>
-    <hyperlink ref="E60" r:id="rId121" tooltip="النهود" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%86%D9%87%D9%88%D8%AF"/>
-    <hyperlink ref="C61" r:id="rId122" tooltip="بابنوسة" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%A8%D9%86%D9%88%D8%B3%D8%A9"/>
-    <hyperlink ref="E61" r:id="rId123" tooltip="بابنوسة" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%A8%D9%86%D9%88%D8%B3%D8%A9"/>
-    <hyperlink ref="C62" r:id="rId124" tooltip="الفولة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A9"/>
-    <hyperlink ref="E62" r:id="rId125" tooltip="الفولة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A9"/>
-    <hyperlink ref="C64" r:id="rId126" tooltip="منطقة أبيي" display="https://ar.wikipedia.org/wiki/%D9%85%D9%86%D8%B7%D9%82%D8%A9_%D8%A3%D8%A8%D9%8A%D9%8A"/>
-    <hyperlink ref="E64" r:id="rId127" tooltip="منطقة أبيي" display="https://ar.wikipedia.org/wiki/%D9%85%D9%86%D8%B7%D9%82%D8%A9_%D8%A3%D8%A8%D9%8A%D9%8A"/>
-    <hyperlink ref="C125" r:id="rId128" tooltip="كاس (مدينة)" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%B3_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)"/>
-    <hyperlink ref="C126" r:id="rId129" tooltip="عد الفرسان" display="https://ar.wikipedia.org/wiki/%D8%B9%D8%AF_%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86"/>
-    <hyperlink ref="E126" r:id="rId130" tooltip="عد الفرسان" display="https://ar.wikipedia.org/wiki/%D8%B9%D8%AF_%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86"/>
-    <hyperlink ref="C127" r:id="rId131" tooltip="نيالا (السودان)" display="https://ar.wikipedia.org/wiki/%D9%86%D9%8A%D8%A7%D9%84%D8%A7_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="E127" r:id="rId132" tooltip="نيالا (السودان)" display="https://ar.wikipedia.org/wiki/%D9%86%D9%8A%D8%A7%D9%84%D8%A7_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C129" r:id="rId133" tooltip="رهيد البردي" display="https://ar.wikipedia.org/wiki/%D8%B1%D9%87%D9%8A%D8%AF_%D8%A7%D9%84%D8%A8%D8%B1%D8%AF%D9%8A"/>
-    <hyperlink ref="C132" r:id="rId134" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
-    <hyperlink ref="E132" r:id="rId135" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
-    <hyperlink ref="C75" r:id="rId136" tooltip="الجنينة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%86%D9%8A%D9%86%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="E75" r:id="rId137" tooltip="الجنينة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%86%D9%8A%D9%86%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)"/>
-    <hyperlink ref="C120" r:id="rId138" tooltip="مليط" display="https://ar.wikipedia.org/wiki/%D9%85%D9%84%D9%8A%D8%B7"/>
-    <hyperlink ref="E120" r:id="rId139" tooltip="مليط" display="https://ar.wikipedia.org/wiki/%D9%85%D9%84%D9%8A%D8%B7"/>
-    <hyperlink ref="C121" r:id="rId140" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
-    <hyperlink ref="E121" r:id="rId141" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85"/>
-    <hyperlink ref="C123" r:id="rId142" tooltip="الفاشر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B4%D8%B1"/>
-    <hyperlink ref="E123" r:id="rId143" tooltip="الفاشر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B4%D8%B1"/>
-    <hyperlink ref="C65" r:id="rId144" tooltip="الضعين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B6%D8%B9%D9%8A%D9%86"/>
-    <hyperlink ref="E65" r:id="rId145" tooltip="الضعين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B6%D8%B9%D9%8A%D9%86"/>
-    <hyperlink ref="C111" r:id="rId146" tooltip="زالنجي" display="https://ar.wikipedia.org/wiki/%D8%B2%D8%A7%D9%84%D9%86%D8%AC%D9%8A"/>
-    <hyperlink ref="E111" r:id="rId147" tooltip="زالنجي" display="https://ar.wikipedia.org/wiki/%D8%B2%D8%A7%D9%84%D9%86%D8%AC%D9%8A"/>
-    <hyperlink ref="C113" r:id="rId148" tooltip="محلية وادي صالح" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D9%88%D8%A7%D8%AF%D9%8A_%D8%B5%D8%A7%D9%84%D8%AD"/>
-    <hyperlink ref="C116" r:id="rId149" tooltip="جبل مرة" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D9%85%D8%B1%D8%A9"/>
-    <hyperlink ref="C106" r:id="rId150" tooltip="نهر عطبرة" display="https://ar.wikipedia.org/wiki/%D9%86%D9%87%D8%B1_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9"/>
-    <hyperlink ref="E106" r:id="rId151" tooltip="حلفا الجديدة" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D9%81%D8%A7_%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9"/>
-    <hyperlink ref="C107" r:id="rId152" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
-    <hyperlink ref="E107" r:id="rId153" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7"/>
-    <hyperlink ref="C108" r:id="rId154" tooltip="محلية القاش" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%A7%D8%B4"/>
-    <hyperlink ref="E108" r:id="rId155" tooltip="أروما" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%B1%D9%88%D9%85%D8%A7"/>
-    <hyperlink ref="C109" r:id="rId156" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
-    <hyperlink ref="E109" r:id="rId157" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8"/>
+    <hyperlink ref="C26" r:id="rId1" tooltip="محلية وادي حلفا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D9%88%D8%A7%D8%AF%D9%8A_%D8%AD%D9%84%D9%81%D8%A7" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E26" r:id="rId2" tooltip="وادي حلفا" display="https://ar.wikipedia.org/wiki/%D9%88%D8%A7%D8%AF%D9%8A_%D8%AD%D9%84%D9%81%D8%A7" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C27" r:id="rId3" tooltip="محلية دنقلا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%AF%D9%86%D9%82%D9%84%D8%A7" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E27" r:id="rId4" tooltip="دنقلا" display="https://ar.wikipedia.org/wiki/%D8%AF%D9%86%D9%82%D9%84%D8%A7" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C28" r:id="rId5" tooltip="مروي" display="https://ar.wikipedia.org/wiki/%D9%85%D8%B1%D9%88%D9%8A" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E28" r:id="rId6" tooltip="مروي" display="https://ar.wikipedia.org/wiki/%D9%85%D8%B1%D9%88%D9%8A" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C29" r:id="rId7" tooltip="الدبة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E29" r:id="rId8" tooltip="الدبة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C30" r:id="rId9" tooltip="محلية أبو حمد" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A3%D8%A8%D9%88_%D8%AD%D9%85%D8%AF" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E30" r:id="rId10" tooltip="أبو حمد" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%A8%D9%88_%D8%AD%D9%85%D8%AF" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C31" r:id="rId11" tooltip="محلية بربر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A8%D8%B1%D8%A8%D8%B1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E31" r:id="rId12" tooltip="بربر (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D8%A8%D8%B1_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C32" r:id="rId13" tooltip="محلية الدامر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AF%D8%A7%D9%85%D8%B1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E32" r:id="rId14" tooltip="الدامر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D8%A7%D9%85%D8%B1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C33" r:id="rId15" tooltip="محلية عطبرة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E33" r:id="rId16" tooltip="شندي" display="https://ar.wikipedia.org/wiki/%D8%B4%D9%86%D8%AF%D9%8A" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C34" r:id="rId17" tooltip="محلية المتمة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%85%D8%AA%D9%85%D8%A9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E34" r:id="rId18" tooltip="المتمة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D8%AA%D9%85%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C82" r:id="rId19" tooltip="حلايب" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D8%A7%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E82" r:id="rId20" tooltip="حلايب" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D8%A7%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C83" r:id="rId21" tooltip="بورتسودان" display="https://ar.wikipedia.org/wiki/%D8%A8%D9%88%D8%B1%D8%AA%D8%B3%D9%88%D8%AF%D8%A7%D9%86" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E83" r:id="rId22" tooltip="بورتسودان" display="https://ar.wikipedia.org/wiki/%D8%A8%D9%88%D8%B1%D8%AA%D8%B3%D9%88%D8%AF%D8%A7%D9%86" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C84" r:id="rId23" tooltip="سنكات" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D9%83%D8%A7%D8%AA" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E84" r:id="rId24" tooltip="سنكات" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D9%83%D8%A7%D8%AA" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C85" r:id="rId25" tooltip="طوكر" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%88%D9%83%D8%B1" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E85" r:id="rId26" tooltip="طوكر" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%88%D9%83%D8%B1" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C86" r:id="rId27" tooltip="سواكن" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%A7%D9%83%D9%86" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E86" r:id="rId28" tooltip="سواكن" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%A7%D9%83%D9%86" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C87" r:id="rId29" tooltip="جبيت" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%8A%D8%AA" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E87" r:id="rId30" tooltip="جبيت" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%8A%D8%AA" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C88" r:id="rId31" tooltip="هيا (توضيح)" display="https://ar.wikipedia.org/wiki/%D9%87%D9%8A%D8%A7_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E88" r:id="rId32" tooltip="هيا (توضيح)" display="https://ar.wikipedia.org/wiki/%D9%87%D9%8A%D8%A7_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C89" r:id="rId33" tooltip="درديب" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B1%D8%AF%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E89" r:id="rId34" tooltip="درديب" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B1%D8%AF%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C91" r:id="rId35" tooltip="محلية الفاو" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%81%D8%A7%D9%88" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E91" r:id="rId36" tooltip="الفاو (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D9%88_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C92" r:id="rId37" tooltip="محلية الفشقة" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%81%D8%B4%D9%82%D8%A9" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E92" r:id="rId38" tooltip="الشواك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D9%88%D8%A7%D9%83" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C93" r:id="rId39" tooltip="محلية القضارف" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%B6%D8%A7%D8%B1%D9%81" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E93" r:id="rId40" tooltip="القضارف (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B6%D8%A7%D8%B1%D9%81_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C94" r:id="rId41" tooltip="محلية الرهد" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%B1%D9%87%D8%AF" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E94" r:id="rId42" tooltip="الحواتة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D9%88%D8%A7%D8%AA%D8%A9" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E95" r:id="rId43" tooltip="دوكة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%AF%D9%88%D9%83%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E96" r:id="rId44" tooltip="كساب" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D8%A7%D8%A8" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C97" r:id="rId45" tooltip="قلع النحل" display="https://ar.wikipedia.org/wiki/%D9%82%D9%84%D8%B9_%D8%A7%D9%84%D9%86%D8%AD%D9%84" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E97" r:id="rId46" tooltip="قلع النحل" display="https://ar.wikipedia.org/wiki/%D9%82%D9%84%D8%B9_%D8%A7%D9%84%D9%86%D8%AD%D9%84" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C98" r:id="rId47" tooltip="البطانة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%A8%D8%B7%D8%A7%D9%86%D8%A9" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C99" r:id="rId48" tooltip="القريشة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%B4%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E99" r:id="rId49" tooltip="القريشة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D8%B4%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C101" r:id="rId50" tooltip="نهر عطبرة" display="https://ar.wikipedia.org/wiki/%D9%86%D9%87%D8%B1_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E101" r:id="rId51" tooltip="حلفا الجديدة" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D9%81%D8%A7_%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C102" r:id="rId52" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E102" r:id="rId53" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C103" r:id="rId54" tooltip="محلية القاش" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%A7%D8%B4" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E103" r:id="rId55" tooltip="أروما" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%B1%D9%88%D9%85%D8%A7" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C104" r:id="rId56" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E104" r:id="rId57" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C2" r:id="rId58" tooltip="محلية الخرطوم" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E2" r:id="rId59" tooltip="الخرطوم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C4" r:id="rId60" tooltip="محلية أم درمان الكبرى" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A3%D9%85_%D8%AF%D8%B1%D9%85%D8%A7%D9%86_%D8%A7%D9%84%D9%83%D8%A8%D8%B1%D9%89" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E4" r:id="rId61" tooltip="أم درمان" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%AF%D8%B1%D9%85%D8%A7%D9%86" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C6" r:id="rId62" tooltip="الخرطوم بحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85_%D8%A8%D8%AD%D8%B1%D9%8A" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E6" r:id="rId63" tooltip="الخرطوم بحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B1%D8%B7%D9%88%D9%85_%D8%A8%D8%AD%D8%B1%D9%8A" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C7" r:id="rId64" tooltip="شرق النيل" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D9%86%D9%8A%D9%84" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E7" r:id="rId65" tooltip="شرق النيل" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D9%86%D9%8A%D9%84" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C8" r:id="rId66" tooltip="جبل الأولياء" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A7%D8%A1" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E8" r:id="rId67" tooltip="جبل الأولياء" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D8%A7%D9%84%D8%A3%D9%88%D9%84%D9%8A%D8%A7%D8%A1" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C9" r:id="rId68" tooltip="محلية الكاملين" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%84%D9%8A%D9%86" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E9" r:id="rId69" tooltip="الكاملين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%A7%D9%85%D9%84%D9%8A%D9%86" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C10" r:id="rId70" tooltip="شرق الجزيرة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%82_%D8%A7%D9%84%D8%AC%D8%B2%D9%8A%D8%B1%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E10" r:id="rId71" tooltip="رفاعة" display="https://ar.wikipedia.org/wiki/%D8%B1%D9%81%D8%A7%D8%B9%D8%A9" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C11" r:id="rId72" tooltip="الحصاحيصا" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%AD%D9%8A%D8%B5%D8%A7" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E11" r:id="rId73" tooltip="الحصاحيصا" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AD%D8%B5%D8%A7%D8%AD%D9%8A%D8%B5%D8%A7" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C12" r:id="rId74" tooltip="المناقل" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%82%D9%84" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E12" r:id="rId75" tooltip="المناقل" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%85%D9%86%D8%A7%D9%82%D9%84" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C13" r:id="rId76" tooltip="ود مدني" display="https://ar.wikipedia.org/wiki/%D9%88%D8%AF_%D9%85%D8%AF%D9%86%D9%8A" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E13" r:id="rId77" tooltip="ود مدني" display="https://ar.wikipedia.org/wiki/%D9%88%D8%AF_%D9%85%D8%AF%D9%86%D9%8A" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E14" r:id="rId78" tooltip="بركات (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D9%83%D8%A7%D8%AA_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C15" r:id="rId79" tooltip="أم القرى (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D9%82%D8%B1%D9%89_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E15" r:id="rId80" tooltip="أم القرى (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D9%82%D8%B1%D9%89_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C16" r:id="rId81" tooltip="سنار" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%A7%D8%B1" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E16" r:id="rId82" tooltip="سنار" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%A7%D8%B1" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C17" r:id="rId83" tooltip="سنجة" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%AC%D8%A9" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E17" r:id="rId84" tooltip="سنجة" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%86%D8%AC%D8%A9" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C18" r:id="rId85" tooltip="محلية الدندر" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%AF%D9%86%D8%AF%D8%B1" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E18" r:id="rId86" tooltip="الدندر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%86%D8%AF%D8%B1" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C20" r:id="rId87" tooltip="سودري" display="https://ar.wikipedia.org/wiki/%D8%B3%D9%88%D8%AF%D8%B1%D9%8A" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C21" r:id="rId88" tooltip="جبرة الشيخ (الصفحة غير موجودة)" display="https://ar.wikipedia.org/w/index.php?title=%D8%AC%D8%A8%D8%B1%D8%A9_%D8%A7%D9%84%D8%B4%D9%8A%D8%AE&amp;action=edit&amp;redlink=1" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C22" r:id="rId89" tooltip="محلية بارا" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A8%D8%A7%D8%B1%D8%A7" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E22" r:id="rId90" tooltip="بارا" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%B1%D8%A7" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C24" r:id="rId91" tooltip="أم روابة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%B1%D9%88%D8%A7%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E24" r:id="rId92" tooltip="أم روابة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%B1%D9%88%D8%A7%D8%A8%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C25" r:id="rId93" tooltip="أم الدم" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D8%AF%D9%85" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E25" r:id="rId94" tooltip="أم الدم" display="https://ar.wikipedia.org/wiki/%D8%A3%D9%85_%D8%A7%D9%84%D8%AF%D9%85" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C40" r:id="rId95" tooltip="الدويم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D9%85" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E40" r:id="rId96" tooltip="الدويم" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%88%D9%8A%D9%85" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C41" r:id="rId97" tooltip="القطينة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%86%D8%A9" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E41" r:id="rId98" tooltip="القطينة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%82%D8%B7%D9%8A%D9%86%D8%A9" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C42" r:id="rId99" tooltip="كوستي" display="https://ar.wikipedia.org/wiki/%D9%83%D9%88%D8%B3%D8%AA%D9%8A" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E42" r:id="rId100" tooltip="كوستي" display="https://ar.wikipedia.org/wiki/%D9%83%D9%88%D8%B3%D8%AA%D9%8A" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C43" r:id="rId101" tooltip="جبلين (توضيح)" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84%D9%8A%D9%86_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E43" r:id="rId102" tooltip="جبلين (توضيح)" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84%D9%8A%D9%86_(%D8%AA%D9%88%D8%B6%D9%8A%D8%AD)" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C35" r:id="rId103" tooltip="الدمازين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D8%B2%D9%8A%D9%86" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E35" r:id="rId104" tooltip="الدمازين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D8%B2%D9%8A%D9%86" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C36" r:id="rId105" tooltip="الروصيرص" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B1%D9%88%D8%B5%D9%8A%D8%B1%D8%B5" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E36" r:id="rId106" tooltip="الروصيرص" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B1%D9%88%D8%B5%D9%8A%D8%B1%D8%B5" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C38" r:id="rId107" tooltip="باو" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D9%88" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E38" r:id="rId108" tooltip="باو" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D9%88" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C39" r:id="rId109" tooltip="الكرمك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%B1%D9%85%D9%83" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E39" r:id="rId110" tooltip="الكرمك" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%83%D8%B1%D9%85%D9%83" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C45" r:id="rId111" tooltip="الدلنج" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%84%D9%86%D8%AC" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E45" r:id="rId112" tooltip="الدلنج" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AF%D9%84%D9%86%D8%AC" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E47" r:id="rId113" tooltip="أبو جبيهة (مدينة)" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%A8%D9%88_%D8%AC%D8%A8%D9%8A%D9%87%D8%A9_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C48" r:id="rId114" tooltip="تلودي" display="https://ar.wikipedia.org/wiki/%D8%AA%D9%84%D9%88%D8%AF%D9%8A" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E48" r:id="rId115" tooltip="تلودي" display="https://ar.wikipedia.org/wiki/%D8%AA%D9%84%D9%88%D8%AF%D9%8A" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C49" r:id="rId116" tooltip="كادوقلي" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%AF%D9%88%D9%82%D9%84%D9%8A" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E49" r:id="rId117" tooltip="كادوقلي" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%AF%D9%88%D9%82%D9%84%D9%8A" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C55" r:id="rId118" tooltip="برام" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%B1%D8%A7%D9%85" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C59" r:id="rId119" tooltip="العباسية (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B9%D8%A8%D8%A7%D8%B3%D9%8A%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C60" r:id="rId120" tooltip="النهود" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%86%D9%87%D9%88%D8%AF" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E60" r:id="rId121" tooltip="النهود" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%86%D9%87%D9%88%D8%AF" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C61" r:id="rId122" tooltip="بابنوسة" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%A8%D9%86%D9%88%D8%B3%D8%A9" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E61" r:id="rId123" tooltip="بابنوسة" display="https://ar.wikipedia.org/wiki/%D8%A8%D8%A7%D8%A8%D9%86%D9%88%D8%B3%D8%A9" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C62" r:id="rId124" tooltip="الفولة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A9" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E62" r:id="rId125" tooltip="الفولة" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D9%88%D9%84%D8%A9" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C64" r:id="rId126" tooltip="منطقة أبيي" display="https://ar.wikipedia.org/wiki/%D9%85%D9%86%D8%B7%D9%82%D8%A9_%D8%A3%D8%A8%D9%8A%D9%8A" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E64" r:id="rId127" tooltip="منطقة أبيي" display="https://ar.wikipedia.org/wiki/%D9%85%D9%86%D8%B7%D9%82%D8%A9_%D8%A3%D8%A8%D9%8A%D9%8A" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C125" r:id="rId128" tooltip="كاس (مدينة)" display="https://ar.wikipedia.org/wiki/%D9%83%D8%A7%D8%B3_(%D9%85%D8%AF%D9%8A%D9%86%D8%A9)" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C126" r:id="rId129" tooltip="عد الفرسان" display="https://ar.wikipedia.org/wiki/%D8%B9%D8%AF_%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E126" r:id="rId130" tooltip="عد الفرسان" display="https://ar.wikipedia.org/wiki/%D8%B9%D8%AF_%D8%A7%D9%84%D9%81%D8%B1%D8%B3%D8%A7%D9%86" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C127" r:id="rId131" tooltip="نيالا (السودان)" display="https://ar.wikipedia.org/wiki/%D9%86%D9%8A%D8%A7%D9%84%D8%A7_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E127" r:id="rId132" tooltip="نيالا (السودان)" display="https://ar.wikipedia.org/wiki/%D9%86%D9%8A%D8%A7%D9%84%D8%A7_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C129" r:id="rId133" tooltip="رهيد البردي" display="https://ar.wikipedia.org/wiki/%D8%B1%D9%87%D9%8A%D8%AF_%D8%A7%D9%84%D8%A8%D8%B1%D8%AF%D9%8A" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C132" r:id="rId134" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E132" r:id="rId135" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C75" r:id="rId136" tooltip="الجنينة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%86%D9%8A%D9%86%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E75" r:id="rId137" tooltip="الجنينة (السودان)" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AC%D9%86%D9%8A%D9%86%D8%A9_(%D8%A7%D9%84%D8%B3%D9%88%D8%AF%D8%A7%D9%86)" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C120" r:id="rId138" tooltip="مليط" display="https://ar.wikipedia.org/wiki/%D9%85%D9%84%D9%8A%D8%B7" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E120" r:id="rId139" tooltip="مليط" display="https://ar.wikipedia.org/wiki/%D9%85%D9%84%D9%8A%D8%B7" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C121" r:id="rId140" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E121" r:id="rId141" tooltip="كتم" display="https://ar.wikipedia.org/wiki/%D9%83%D8%AA%D9%85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C123" r:id="rId142" tooltip="الفاشر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B4%D8%B1" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E123" r:id="rId143" tooltip="الفاشر" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D9%81%D8%A7%D8%B4%D8%B1" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C65" r:id="rId144" tooltip="الضعين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B6%D8%B9%D9%8A%D9%86" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E65" r:id="rId145" tooltip="الضعين" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B6%D8%B9%D9%8A%D9%86" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C111" r:id="rId146" tooltip="زالنجي" display="https://ar.wikipedia.org/wiki/%D8%B2%D8%A7%D9%84%D9%86%D8%AC%D9%8A" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E111" r:id="rId147" tooltip="زالنجي" display="https://ar.wikipedia.org/wiki/%D8%B2%D8%A7%D9%84%D9%86%D8%AC%D9%8A" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C113" r:id="rId148" tooltip="محلية وادي صالح" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D9%88%D8%A7%D8%AF%D9%8A_%D8%B5%D8%A7%D9%84%D8%AD" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C116" r:id="rId149" tooltip="جبل مرة" display="https://ar.wikipedia.org/wiki/%D8%AC%D8%A8%D9%84_%D9%85%D8%B1%D8%A9" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C106" r:id="rId150" tooltip="نهر عطبرة" display="https://ar.wikipedia.org/wiki/%D9%86%D9%87%D8%B1_%D8%B9%D8%B7%D8%A8%D8%B1%D8%A9" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E106" r:id="rId151" tooltip="حلفا الجديدة" display="https://ar.wikipedia.org/wiki/%D8%AD%D9%84%D9%81%D8%A7_%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%D8%A9" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C107" r:id="rId152" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E107" r:id="rId153" tooltip="كسلا" display="https://ar.wikipedia.org/wiki/%D9%83%D8%B3%D9%84%D8%A7" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C108" r:id="rId154" tooltip="محلية القاش" display="https://ar.wikipedia.org/wiki/%D9%85%D8%AD%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D9%82%D8%A7%D8%B4" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E108" r:id="rId155" tooltip="أروما" display="https://ar.wikipedia.org/wiki/%D8%A3%D8%B1%D9%88%D9%85%D8%A7" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C109" r:id="rId156" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E109" r:id="rId157" tooltip="همشكوريب" display="https://ar.wikipedia.org/wiki/%D9%87%D9%85%D8%B4%D9%83%D9%88%D8%B1%D9%8A%D8%A8" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId158"/>

--- a/DB/Basicinfo/Cities-2023-08-18.xlsx
+++ b/DB/Basicinfo/Cities-2023-08-18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48806E0D-0AB5-4096-A834-917C410979E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE542F45-D29E-4177-85C1-176F874B5F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="410">
   <si>
     <t>id</t>
   </si>
@@ -1223,6 +1223,33 @@
   </si>
   <si>
     <t>فرشوط</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>الهرم</t>
+  </si>
+  <si>
+    <t>حدائق الأهرام</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>الدقي</t>
+  </si>
+  <si>
+    <t>بولاق الدكرور</t>
+  </si>
+  <si>
+    <t>العمرانية الشرقية</t>
+  </si>
+  <si>
+    <t>العمرانية الغربية</t>
+  </si>
+  <si>
+    <t>خاتم المرسلين</t>
   </si>
 </sst>
 </file>
@@ -1593,11 +1620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156:A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3721,10 +3748,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3732,10 +3759,10 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>402</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3743,10 +3770,10 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>170</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,68 +3781,68 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3823,10 +3850,10 @@
         <v>177</v>
       </c>
       <c r="C166" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3834,124 +3861,106 @@
         <v>177</v>
       </c>
       <c r="C167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C168" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C171" t="s">
-        <v>187</v>
-      </c>
-      <c r="F171" s="4">
-        <v>244336</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>188</v>
-      </c>
-      <c r="F172" s="4">
-        <v>121054</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>189</v>
-      </c>
-      <c r="F173" s="4">
-        <v>72491</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>182</v>
-      </c>
-      <c r="F174" s="4">
-        <v>105875</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>183</v>
-      </c>
-      <c r="F175" s="4">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>190</v>
-      </c>
-      <c r="F176" s="4">
-        <v>36801</v>
+        <v>178</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,13 +3968,10 @@
         <v>176</v>
       </c>
       <c r="B177">
+        <v>178</v>
+      </c>
+      <c r="C177" t="s">
         <v>179</v>
-      </c>
-      <c r="C177" t="s">
-        <v>191</v>
-      </c>
-      <c r="F177" s="4">
-        <v>44504</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,13 +3979,10 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>192</v>
-      </c>
-      <c r="F178" s="4">
-        <v>27706</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -3987,13 +3990,10 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>193</v>
-      </c>
-      <c r="F179" s="4">
-        <v>32093</v>
+        <v>181</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4004,10 +4004,10 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F180" s="4">
-        <v>44856</v>
+        <v>244336</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4018,10 +4018,10 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F181" s="4">
-        <v>72839</v>
+        <v>121054</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,10 +4032,10 @@
         <v>179</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F182" s="4">
-        <v>30829</v>
+        <v>72491</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,10 +4046,10 @@
         <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F183" s="4">
-        <v>41227</v>
+        <v>105875</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,10 +4060,10 @@
         <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F184" s="4">
-        <v>16895</v>
+        <v>44511</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4074,10 +4074,10 @@
         <v>179</v>
       </c>
       <c r="C185" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F185" s="4">
-        <v>20082</v>
+        <v>36801</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4088,10 +4088,10 @@
         <v>179</v>
       </c>
       <c r="C186" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F186" s="4">
-        <v>4280</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,13 +4099,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F187" s="4">
-        <v>68339</v>
+        <v>27706</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,13 +4113,13 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C188" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F188" s="4">
-        <v>17745</v>
+        <v>32093</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,13 +4127,13 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F189" s="4">
-        <v>2413</v>
+        <v>44856</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4141,13 +4141,13 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F190" s="4">
-        <v>26451</v>
+        <v>72839</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +4155,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C191" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F191" s="4">
-        <v>8488</v>
+        <v>30829</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,13 +4169,13 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C192" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F192" s="4">
-        <v>7519</v>
+        <v>41227</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4183,13 +4183,13 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C193" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F193" s="4">
-        <v>8445</v>
+        <v>16895</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4197,13 +4197,13 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C194" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F194" s="4">
-        <v>13202</v>
+        <v>20082</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,13 +4211,13 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C195" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F195" s="4">
-        <v>428292</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,13 +4225,13 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F196" s="4">
-        <v>78785</v>
+        <v>68339</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,13 +4239,13 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F197" s="4">
-        <v>121039</v>
+        <v>17745</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,13 +4253,13 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F198" s="4">
-        <v>69473</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,13 +4267,13 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C199" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F199" s="4">
-        <v>18548</v>
+        <v>26451</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4281,13 +4281,13 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C200" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F200" s="4">
-        <v>58571</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,13 +4295,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C201" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F201" s="4">
-        <v>87660</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4309,13 +4309,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C202" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F202" s="4">
-        <v>30473</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4323,13 +4323,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F203" s="4">
-        <v>31659</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,10 +4340,10 @@
         <v>181</v>
       </c>
       <c r="C204" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F204" s="4">
-        <v>72555</v>
+        <v>428292</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4354,10 +4354,10 @@
         <v>181</v>
       </c>
       <c r="C205" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F205" s="4">
-        <v>13915</v>
+        <v>78785</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,10 +4368,10 @@
         <v>181</v>
       </c>
       <c r="C206" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F206" s="4">
-        <v>71650</v>
+        <v>121039</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,10 +4382,10 @@
         <v>181</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F207" s="4">
-        <v>55631</v>
+        <v>69473</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4396,10 +4396,10 @@
         <v>181</v>
       </c>
       <c r="C208" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F208" s="4">
-        <v>105728</v>
+        <v>18548</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4410,10 +4410,10 @@
         <v>181</v>
       </c>
       <c r="C209" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F209" s="4">
-        <v>103550</v>
+        <v>58571</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,10 +4424,10 @@
         <v>181</v>
       </c>
       <c r="C210" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F210" s="4">
-        <v>35626</v>
+        <v>87660</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,10 +4438,10 @@
         <v>181</v>
       </c>
       <c r="C211" t="s">
-        <v>233</v>
-      </c>
-      <c r="F211">
-        <v>755</v>
+        <v>224</v>
+      </c>
+      <c r="F211" s="4">
+        <v>30473</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>181</v>
       </c>
       <c r="C212" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F212" s="4">
-        <v>21518</v>
+        <v>31659</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,10 +4466,10 @@
         <v>181</v>
       </c>
       <c r="C213" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F213" s="4">
-        <v>37187</v>
+        <v>72555</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,13 +4477,13 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C214" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F214" s="4">
-        <v>105092</v>
+        <v>13915</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4491,13 +4491,13 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C215" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F215" s="4">
-        <v>8008</v>
+        <v>71650</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,13 +4505,13 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C216" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F216" s="4">
-        <v>8635</v>
+        <v>55631</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,13 +4519,13 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C217" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F217" s="4">
-        <v>36850</v>
+        <v>105728</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4533,13 +4533,13 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C218" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F218" s="4">
-        <v>21431</v>
+        <v>103550</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,13 +4547,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C219" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="F219" s="4">
-        <v>17604</v>
+        <v>35626</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -4561,13 +4561,13 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C220" t="s">
-        <v>212</v>
-      </c>
-      <c r="F220" s="4">
-        <v>23193</v>
+        <v>233</v>
+      </c>
+      <c r="F220">
+        <v>755</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,13 +4575,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C221" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F221" s="4">
-        <v>22755</v>
+        <v>21518</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,13 +4589,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C222" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F222" s="4">
-        <v>29163</v>
+        <v>37187</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>182</v>
       </c>
       <c r="C223" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F223" s="4">
-        <v>36934</v>
+        <v>105092</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -4620,10 +4620,10 @@
         <v>182</v>
       </c>
       <c r="C224" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F224" s="4">
-        <v>16193</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -4631,13 +4631,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C225" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="F225" s="4">
-        <v>429503</v>
+        <v>8635</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,13 +4645,13 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C226" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="F226" s="4">
-        <v>466369</v>
+        <v>36850</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,13 +4659,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C227" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F227" s="4">
-        <v>79701</v>
+        <v>21431</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,13 +4673,13 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C228" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F228" s="4">
-        <v>100908</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,13 +4687,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C229" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="F229" s="4">
-        <v>36305</v>
+        <v>23193</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -4701,13 +4701,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C230" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F230" s="4">
-        <v>25184</v>
+        <v>22755</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -4715,13 +4715,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="F231" s="4">
-        <v>59744</v>
+        <v>29163</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4729,13 +4729,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C232" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F232" s="4">
-        <v>59720</v>
+        <v>36934</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -4743,13 +4743,13 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C233" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="F233" s="4">
-        <v>146226</v>
+        <v>16193</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -4757,13 +4757,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C234" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F234" s="4">
-        <v>106367</v>
+        <v>429503</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -4771,13 +4771,13 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C235" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F235" s="4">
-        <v>64290</v>
+        <v>466369</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,13 +4785,13 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C236" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F236" s="4">
-        <v>31193</v>
+        <v>79701</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,13 +4799,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C237" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F237" s="4">
-        <v>43398</v>
+        <v>100908</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -4813,10 +4813,13 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C238" t="s">
-        <v>248</v>
+        <v>121</v>
+      </c>
+      <c r="F238" s="4">
+        <v>36305</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,13 +4827,13 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C239" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F239" s="4">
-        <v>49369</v>
+        <v>25184</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -4838,13 +4841,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C240" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F240" s="4">
-        <v>67211</v>
+        <v>59744</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,13 +4855,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C241" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F241" s="4">
-        <v>17933</v>
+        <v>59720</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,10 +4872,10 @@
         <v>184</v>
       </c>
       <c r="C242" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F242" s="4">
-        <v>52055</v>
+        <v>146226</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -4883,10 +4886,10 @@
         <v>184</v>
       </c>
       <c r="C243" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F243" s="4">
-        <v>36710</v>
+        <v>106367</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,10 +4900,10 @@
         <v>184</v>
       </c>
       <c r="C244" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F244" s="4">
-        <v>23320</v>
+        <v>64290</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,10 +4914,10 @@
         <v>184</v>
       </c>
       <c r="C245" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F245" s="4">
-        <v>41775</v>
+        <v>31193</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,10 +4928,10 @@
         <v>184</v>
       </c>
       <c r="C246" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F246" s="4">
-        <v>29613</v>
+        <v>43398</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -4936,13 +4939,10 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C247" t="s">
-        <v>261</v>
-      </c>
-      <c r="F247" s="4">
-        <v>188309</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,13 +4950,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C248" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F248" s="4">
-        <v>23200</v>
+        <v>49369</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -4964,13 +4964,13 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C249" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F249" s="4">
-        <v>94020</v>
+        <v>67211</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -4978,13 +4978,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C250" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F250" s="4">
-        <v>52992</v>
+        <v>17933</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -4992,13 +4992,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F251" s="4">
-        <v>86466</v>
+        <v>52055</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,13 +5006,13 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C252" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F252" s="4">
-        <v>38797</v>
+        <v>36710</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -5020,13 +5020,13 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C253" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="F253" s="4">
-        <v>45362</v>
+        <v>23320</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -5034,13 +5034,13 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C254" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F254" s="4">
-        <v>36072</v>
+        <v>41775</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -5048,13 +5048,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C255" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F255" s="4">
-        <v>53996</v>
+        <v>29613</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,10 +5065,10 @@
         <v>185</v>
       </c>
       <c r="C256" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F256" s="4">
-        <v>50953</v>
+        <v>188309</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -5076,13 +5076,13 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C257" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F257" s="4">
-        <v>303527</v>
+        <v>23200</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -5090,13 +5090,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C258" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F258" s="4">
-        <v>19709</v>
+        <v>94020</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,13 +5104,13 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C259" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F259" s="4">
-        <v>15834</v>
+        <v>52992</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5118,13 +5118,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C260" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F260" s="4">
-        <v>20314</v>
+        <v>86466</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -5132,13 +5132,13 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C261" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F261" s="4">
-        <v>40555</v>
+        <v>38797</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,13 +5146,13 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C262" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F262" s="4">
-        <v>25545</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,13 +5160,13 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C263" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F263" s="4">
-        <v>15433</v>
+        <v>36072</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -5174,13 +5174,13 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C264" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F264" s="4">
-        <v>475076</v>
+        <v>53996</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5188,27 +5188,27 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C265" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F265" s="4">
-        <v>70712</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50953</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C266" t="s">
-        <v>276</v>
-      </c>
-      <c r="F266" s="5">
-        <v>498476</v>
+        <v>267</v>
+      </c>
+      <c r="F266" s="4">
+        <v>303527</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -5216,13 +5216,13 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C267" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F267" s="4">
-        <v>318393</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -5230,13 +5230,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C268" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F268" s="4">
-        <v>29601</v>
+        <v>15834</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -5244,13 +5244,13 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C269" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F269" s="4">
-        <v>67450</v>
+        <v>20314</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5258,13 +5258,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C270" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F270" s="4">
-        <v>141285</v>
+        <v>40555</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,13 +5272,13 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C271" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F271" s="4">
-        <v>47153</v>
+        <v>25545</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -5286,13 +5286,13 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C272" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F272" s="4">
-        <v>59522</v>
+        <v>15433</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5300,13 +5300,13 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C273" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F273" s="4">
-        <v>36592</v>
+        <v>475076</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -5314,27 +5314,27 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C274" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F274" s="4">
-        <v>64559</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70712</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C275" t="s">
-        <v>285</v>
-      </c>
-      <c r="F275" s="4">
-        <v>43672</v>
+        <v>276</v>
+      </c>
+      <c r="F275" s="5">
+        <v>498476</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,10 +5345,10 @@
         <v>189</v>
       </c>
       <c r="C276" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F276" s="4">
-        <v>104100</v>
+        <v>318393</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -5359,10 +5359,10 @@
         <v>189</v>
       </c>
       <c r="C277" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F277" s="4">
-        <v>73081</v>
+        <v>29601</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -5373,10 +5373,10 @@
         <v>189</v>
       </c>
       <c r="C278" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F278" s="4">
-        <v>9350</v>
+        <v>67450</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,10 +5387,10 @@
         <v>189</v>
       </c>
       <c r="C279" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F279" s="4">
-        <v>35022</v>
+        <v>141285</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -5401,10 +5401,10 @@
         <v>189</v>
       </c>
       <c r="C280" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F280" s="4">
-        <v>52611</v>
+        <v>47153</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -5415,10 +5415,10 @@
         <v>189</v>
       </c>
       <c r="C281" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F281" s="4">
-        <v>30004</v>
+        <v>59522</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -5429,10 +5429,10 @@
         <v>189</v>
       </c>
       <c r="C282" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F282" s="4">
-        <v>19515</v>
+        <v>36592</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -5443,10 +5443,10 @@
         <v>189</v>
       </c>
       <c r="C283" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F283" s="4">
-        <v>29565</v>
+        <v>64559</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,10 +5457,10 @@
         <v>189</v>
       </c>
       <c r="C284" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F284" s="4">
-        <v>43157</v>
+        <v>43672</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -5471,10 +5471,10 @@
         <v>189</v>
       </c>
       <c r="C285" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F285" s="4">
-        <v>31650</v>
+        <v>104100</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -5482,13 +5482,13 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C286" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F286" s="4">
-        <v>125309</v>
+        <v>73081</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5496,13 +5496,13 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C287" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F287" s="4">
-        <v>15765</v>
+        <v>9350</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5510,13 +5510,13 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C288" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F288" s="4">
-        <v>31419</v>
+        <v>35022</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -5524,13 +5524,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C289" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F289" s="4">
-        <v>10405</v>
+        <v>52611</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -5538,13 +5538,13 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C290" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F290" s="4">
-        <v>2237</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -5552,13 +5552,13 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C291" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F291" s="4">
-        <v>1815</v>
+        <v>19515</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -5566,13 +5566,13 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C292" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F292" s="4">
-        <v>12733</v>
+        <v>29565</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -5580,13 +5580,13 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C293" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F293" s="4">
-        <v>4802</v>
+        <v>43157</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -5594,13 +5594,13 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C294" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F294" s="4">
-        <v>1274</v>
+        <v>31650</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -5608,13 +5608,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C295" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F295" s="4">
-        <v>2898</v>
+        <v>125309</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -5622,13 +5622,13 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C296" t="s">
-        <v>306</v>
-      </c>
-      <c r="F296">
-        <v>800</v>
+        <v>298</v>
+      </c>
+      <c r="F296" s="4">
+        <v>15765</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -5636,13 +5636,13 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C297" t="s">
-        <v>307</v>
-      </c>
-      <c r="F297">
-        <v>889</v>
+        <v>299</v>
+      </c>
+      <c r="F297" s="4">
+        <v>31419</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -5650,13 +5650,13 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C298" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F298" s="4">
-        <v>4987</v>
+        <v>10405</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -5664,13 +5664,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C299" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F299" s="4">
-        <v>3271</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -5678,13 +5678,13 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C300" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F300" s="4">
-        <v>1725</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -5692,13 +5692,13 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C301" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F301" s="4">
-        <v>205076</v>
+        <v>12733</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -5706,13 +5706,13 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C302" t="s">
-        <v>312</v>
-      </c>
-      <c r="F302">
-        <v>364</v>
+        <v>303</v>
+      </c>
+      <c r="F302" s="4">
+        <v>4802</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -5720,13 +5720,13 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C303" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F303" s="4">
-        <v>38739</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -5734,13 +5734,13 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C304" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F304" s="4">
-        <v>88379</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -5748,13 +5748,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C305" t="s">
-        <v>315</v>
-      </c>
-      <c r="F305" s="4">
-        <v>40001</v>
+        <v>306</v>
+      </c>
+      <c r="F305">
+        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -5762,13 +5762,13 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C306" t="s">
-        <v>316</v>
-      </c>
-      <c r="F306" s="4">
-        <v>62090</v>
+        <v>307</v>
+      </c>
+      <c r="F306">
+        <v>889</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -5776,13 +5776,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C307" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F307" s="4">
-        <v>38569</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -5790,13 +5790,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C308" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F308" s="4">
-        <v>66376</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -5804,13 +5804,13 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C309" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F309" s="4">
-        <v>311576</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,10 +5818,13 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C310" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="F310" s="4">
+        <v>205076</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -5829,13 +5832,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C311" t="s">
-        <v>321</v>
-      </c>
-      <c r="F311" s="4">
-        <v>49669</v>
+        <v>312</v>
+      </c>
+      <c r="F311">
+        <v>364</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -5843,13 +5846,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C312" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F312" s="4">
-        <v>87730</v>
+        <v>38739</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -5857,13 +5860,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C313" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F313" s="4">
-        <v>47306</v>
+        <v>88379</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -5871,13 +5874,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C314" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F314" s="4">
-        <v>54299</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,13 +5888,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C315" t="s">
-        <v>325</v>
-      </c>
-      <c r="F315">
-        <v>583</v>
+        <v>316</v>
+      </c>
+      <c r="F315" s="4">
+        <v>62090</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,13 +5902,13 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C316" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F316" s="4">
-        <v>235733</v>
+        <v>38569</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -5913,13 +5916,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C317" t="s">
-        <v>327</v>
-      </c>
-      <c r="F317">
-        <v>208</v>
+        <v>318</v>
+      </c>
+      <c r="F317" s="4">
+        <v>66376</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -5927,13 +5930,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C318" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F318" s="4">
-        <v>17609</v>
+        <v>311576</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -5941,13 +5944,10 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C319" t="s">
-        <v>329</v>
-      </c>
-      <c r="F319" s="4">
-        <v>77360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -5955,13 +5955,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C320" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F320" s="4">
-        <v>67699</v>
+        <v>49669</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -5969,13 +5969,13 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C321" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F321" s="4">
-        <v>47429</v>
+        <v>87730</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -5983,13 +5983,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C322" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F322" s="4">
-        <v>96029</v>
+        <v>47306</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -5997,13 +5997,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C323" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F323" s="4">
-        <v>63264</v>
+        <v>54299</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -6011,13 +6011,13 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C324" t="s">
-        <v>334</v>
-      </c>
-      <c r="F324" s="4">
-        <v>143884</v>
+        <v>325</v>
+      </c>
+      <c r="F324">
+        <v>583</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -6028,10 +6028,10 @@
         <v>194</v>
       </c>
       <c r="C325" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F325" s="4">
-        <v>42761</v>
+        <v>235733</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -6039,13 +6039,13 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C326" t="s">
-        <v>336</v>
-      </c>
-      <c r="F326" s="4">
-        <v>406401</v>
+        <v>327</v>
+      </c>
+      <c r="F326">
+        <v>208</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -6053,10 +6053,13 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C327" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="F327" s="4">
+        <v>17609</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,13 +6067,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C328" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F328" s="4">
-        <v>71567</v>
+        <v>77360</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -6078,13 +6081,13 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C329" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F329" s="4">
-        <v>84048</v>
+        <v>67699</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -6092,13 +6095,13 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C330" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F330" s="4">
-        <v>71453</v>
+        <v>47429</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -6106,13 +6109,13 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C331" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F331" s="4">
-        <v>72599</v>
+        <v>96029</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -6120,13 +6123,13 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C332" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F332" s="4">
-        <v>75288</v>
+        <v>63264</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -6134,13 +6137,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C333" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F333" s="4">
-        <v>50581</v>
+        <v>143884</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -6148,13 +6151,13 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C334" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F334" s="4">
-        <v>30295</v>
+        <v>42761</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,10 +6168,10 @@
         <v>195</v>
       </c>
       <c r="C335" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F335" s="4">
-        <v>45751</v>
+        <v>406401</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -6179,10 +6182,7 @@
         <v>195</v>
       </c>
       <c r="C336" t="s">
-        <v>346</v>
-      </c>
-      <c r="F336" s="4">
-        <v>22678</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -6190,13 +6190,13 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C337" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F337" s="4">
-        <v>60717</v>
+        <v>71567</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -6204,13 +6204,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C338" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F338" s="4">
-        <v>3890</v>
+        <v>84048</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -6218,13 +6218,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C339" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F339" s="4">
-        <v>19616</v>
+        <v>71453</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,13 +6232,13 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C340" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F340" s="4">
-        <v>3470</v>
+        <v>72599</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -6246,13 +6246,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C341" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F341" s="4">
-        <v>3794</v>
+        <v>75288</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -6260,13 +6260,13 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C342" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F342" s="4">
-        <v>252246</v>
+        <v>50581</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -6274,10 +6274,13 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C343" t="s">
-        <v>353</v>
+        <v>344</v>
+      </c>
+      <c r="F343" s="4">
+        <v>30295</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,13 +6288,13 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C344" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F344" s="4">
-        <v>36529</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -6299,13 +6302,13 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C345" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F345" s="4">
-        <v>74268</v>
+        <v>22678</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -6313,13 +6316,13 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C346" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F346" s="4">
-        <v>6257</v>
+        <v>60717</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -6327,13 +6330,13 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C347" t="s">
-        <v>357</v>
-      </c>
-      <c r="F347">
-        <v>997</v>
+        <v>348</v>
+      </c>
+      <c r="F347" s="4">
+        <v>3890</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -6341,13 +6344,13 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C348" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F348" s="4">
-        <v>65768</v>
+        <v>19616</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -6355,13 +6358,13 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C349" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F349" s="4">
-        <v>43642</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -6369,13 +6372,13 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C350" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F350" s="4">
-        <v>20039</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -6386,10 +6389,10 @@
         <v>197</v>
       </c>
       <c r="C351" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F351" s="4">
-        <v>15507</v>
+        <v>252246</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -6400,10 +6403,7 @@
         <v>197</v>
       </c>
       <c r="C352" t="s">
-        <v>362</v>
-      </c>
-      <c r="F352" s="4">
-        <v>2535</v>
+        <v>353</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -6411,13 +6411,13 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C353" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F353" s="4">
-        <v>159703</v>
+        <v>36529</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,10 +6425,13 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C354" t="s">
-        <v>364</v>
+        <v>355</v>
+      </c>
+      <c r="F354" s="4">
+        <v>74268</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -6436,13 +6439,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C355" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F355" s="4">
-        <v>51974</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -6450,13 +6453,13 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C356" t="s">
-        <v>366</v>
-      </c>
-      <c r="F356" s="4">
-        <v>12943</v>
+        <v>357</v>
+      </c>
+      <c r="F356">
+        <v>997</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -6464,13 +6467,13 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C357" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F357" s="4">
-        <v>16241</v>
+        <v>65768</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,13 +6481,13 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C358" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F358" s="4">
-        <v>24239</v>
+        <v>43642</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -6492,13 +6495,13 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C359" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F359" s="4">
-        <v>80469</v>
+        <v>20039</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -6506,13 +6509,13 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C360" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F360" s="4">
-        <v>27357</v>
+        <v>15507</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -6520,13 +6523,13 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C361" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F361" s="4">
-        <v>67807</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -6534,13 +6537,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C362" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F362" s="4">
-        <v>71920</v>
+        <v>159703</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -6548,13 +6551,10 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C363" t="s">
-        <v>373</v>
-      </c>
-      <c r="F363" s="4">
-        <v>32318</v>
+        <v>364</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -6562,13 +6562,13 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C364" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F364" s="4">
-        <v>28261</v>
+        <v>51974</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -6576,13 +6576,13 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C365" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F365" s="4">
-        <v>24344</v>
+        <v>12943</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -6590,13 +6590,13 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C366" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F366" s="4">
-        <v>1918</v>
+        <v>16241</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -6604,13 +6604,13 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C367" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F367" s="4">
-        <v>6731</v>
+        <v>24239</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -6618,13 +6618,13 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C368" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="F368" s="4">
-        <v>1926</v>
+        <v>80469</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -6632,13 +6632,13 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C369" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F369" s="4">
-        <v>208505</v>
+        <v>27357</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,10 +6646,13 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C370" t="s">
-        <v>379</v>
+        <v>371</v>
+      </c>
+      <c r="F370" s="4">
+        <v>67807</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,13 +6660,13 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C371" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F371" s="4">
-        <v>104460</v>
+        <v>71920</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -6671,10 +6674,13 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C372" t="s">
-        <v>381</v>
+        <v>373</v>
+      </c>
+      <c r="F372" s="4">
+        <v>32318</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -6682,13 +6688,13 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C373" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F373" s="4">
-        <v>49333</v>
+        <v>28261</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -6696,13 +6702,13 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C374" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F374" s="4">
-        <v>38802</v>
+        <v>24344</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -6710,13 +6716,13 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C375" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F375" s="4">
-        <v>62692</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,13 +6730,13 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C376" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F376" s="4">
-        <v>28024</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -6738,13 +6744,13 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C377" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="F377" s="4">
-        <v>109230</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,10 +6761,10 @@
         <v>200</v>
       </c>
       <c r="C378" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F378" s="4">
-        <v>48453</v>
+        <v>208505</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -6769,10 +6775,7 @@
         <v>200</v>
       </c>
       <c r="C379" t="s">
-        <v>388</v>
-      </c>
-      <c r="F379" s="4">
-        <v>22575</v>
+        <v>379</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -6783,10 +6786,10 @@
         <v>200</v>
       </c>
       <c r="C380" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F380" s="4">
-        <v>71590</v>
+        <v>104460</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -6797,10 +6800,7 @@
         <v>200</v>
       </c>
       <c r="C381" t="s">
-        <v>390</v>
-      </c>
-      <c r="F381" s="4">
-        <v>89540</v>
+        <v>381</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -6808,13 +6808,13 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C382" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F382" s="4">
-        <v>185369</v>
+        <v>49333</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -6822,10 +6822,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C383" t="s">
-        <v>392</v>
+        <v>383</v>
+      </c>
+      <c r="F383" s="4">
+        <v>38802</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -6833,13 +6836,13 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C384" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F384" s="4">
-        <v>13156</v>
+        <v>62692</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -6847,13 +6850,13 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C385" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F385" s="4">
-        <v>40758</v>
+        <v>28024</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -6861,13 +6864,13 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C386" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F386" s="4">
-        <v>55690</v>
+        <v>109230</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -6875,13 +6878,13 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C387" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F387" s="4">
-        <v>29712</v>
+        <v>48453</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -6889,13 +6892,13 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C388" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F388" s="4">
-        <v>22142</v>
+        <v>22575</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -6903,13 +6906,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C389" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F389" s="4">
-        <v>23286</v>
+        <v>71590</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,13 +6920,13 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C390" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F390" s="4">
-        <v>60763</v>
+        <v>89540</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -6934,9 +6937,132 @@
         <v>201</v>
       </c>
       <c r="C391" t="s">
+        <v>391</v>
+      </c>
+      <c r="F391" s="4">
+        <v>185369</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>201</v>
+      </c>
+      <c r="C392" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>201</v>
+      </c>
+      <c r="C393" t="s">
+        <v>393</v>
+      </c>
+      <c r="F393" s="4">
+        <v>13156</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>201</v>
+      </c>
+      <c r="C394" t="s">
+        <v>394</v>
+      </c>
+      <c r="F394" s="4">
+        <v>40758</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>201</v>
+      </c>
+      <c r="C395" t="s">
+        <v>395</v>
+      </c>
+      <c r="F395" s="4">
+        <v>55690</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>201</v>
+      </c>
+      <c r="C396" t="s">
+        <v>396</v>
+      </c>
+      <c r="F396" s="4">
+        <v>29712</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>201</v>
+      </c>
+      <c r="C397" t="s">
+        <v>397</v>
+      </c>
+      <c r="F397" s="4">
+        <v>22142</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>201</v>
+      </c>
+      <c r="C398" t="s">
+        <v>398</v>
+      </c>
+      <c r="F398" s="4">
+        <v>23286</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>201</v>
+      </c>
+      <c r="C399" t="s">
+        <v>399</v>
+      </c>
+      <c r="F399" s="4">
+        <v>60763</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>201</v>
+      </c>
+      <c r="C400" t="s">
         <v>400</v>
       </c>
-      <c r="F391" s="4">
+      <c r="F400" s="4">
         <v>54244</v>
       </c>
     </row>
